--- a/data/924/GACC/SUM/Summary of Imports and Exports (In USD) B：Monthly - Historical.xlsx
+++ b/data/924/GACC/SUM/Summary of Imports and Exports (In USD) B：Monthly - Historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,1490 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
-  <si>
-    <t>1981-01</t>
-  </si>
-  <si>
-    <t>1981-02</t>
-  </si>
-  <si>
-    <t>1981-03</t>
-  </si>
-  <si>
-    <t>1981-04</t>
-  </si>
-  <si>
-    <t>1981-05</t>
-  </si>
-  <si>
-    <t>1981-06</t>
-  </si>
-  <si>
-    <t>1981-07</t>
-  </si>
-  <si>
-    <t>1981-08</t>
-  </si>
-  <si>
-    <t>1981-09</t>
-  </si>
-  <si>
-    <t>1981-10</t>
-  </si>
-  <si>
-    <t>1981-11</t>
-  </si>
-  <si>
-    <t>1981-12</t>
-  </si>
-  <si>
-    <t>1982-01</t>
-  </si>
-  <si>
-    <t>1982-02</t>
-  </si>
-  <si>
-    <t>1982-03</t>
-  </si>
-  <si>
-    <t>1982-04</t>
-  </si>
-  <si>
-    <t>1982-05</t>
-  </si>
-  <si>
-    <t>1982-06</t>
-  </si>
-  <si>
-    <t>1982-07</t>
-  </si>
-  <si>
-    <t>1982-08</t>
-  </si>
-  <si>
-    <t>1982-09</t>
-  </si>
-  <si>
-    <t>1982-10</t>
-  </si>
-  <si>
-    <t>1982-11</t>
-  </si>
-  <si>
-    <t>1982-12</t>
-  </si>
-  <si>
-    <t>1983-01</t>
-  </si>
-  <si>
-    <t>1983-02</t>
-  </si>
-  <si>
-    <t>1983-03</t>
-  </si>
-  <si>
-    <t>1983-04</t>
-  </si>
-  <si>
-    <t>1983-05</t>
-  </si>
-  <si>
-    <t>1983-06</t>
-  </si>
-  <si>
-    <t>1983-07</t>
-  </si>
-  <si>
-    <t>1983-08</t>
-  </si>
-  <si>
-    <t>1983-09</t>
-  </si>
-  <si>
-    <t>1983-10</t>
-  </si>
-  <si>
-    <t>1983-11</t>
-  </si>
-  <si>
-    <t>1983-12</t>
-  </si>
-  <si>
-    <t>1984-01</t>
-  </si>
-  <si>
-    <t>1984-02</t>
-  </si>
-  <si>
-    <t>1984-03</t>
-  </si>
-  <si>
-    <t>1984-04</t>
-  </si>
-  <si>
-    <t>1984-05</t>
-  </si>
-  <si>
-    <t>1984-06</t>
-  </si>
-  <si>
-    <t>1984-07</t>
-  </si>
-  <si>
-    <t>1984-08</t>
-  </si>
-  <si>
-    <t>1984-09</t>
-  </si>
-  <si>
-    <t>1984-10</t>
-  </si>
-  <si>
-    <t>1984-11</t>
-  </si>
-  <si>
-    <t>1984-12</t>
-  </si>
-  <si>
-    <t>1985-01</t>
-  </si>
-  <si>
-    <t>1985-02</t>
-  </si>
-  <si>
-    <t>1985-03</t>
-  </si>
-  <si>
-    <t>1985-04</t>
-  </si>
-  <si>
-    <t>1985-05</t>
-  </si>
-  <si>
-    <t>1985-06</t>
-  </si>
-  <si>
-    <t>1985-07</t>
-  </si>
-  <si>
-    <t>1985-08</t>
-  </si>
-  <si>
-    <t>1985-09</t>
-  </si>
-  <si>
-    <t>1985-10</t>
-  </si>
-  <si>
-    <t>1985-11</t>
-  </si>
-  <si>
-    <t>1985-12</t>
-  </si>
-  <si>
-    <t>1986-01</t>
-  </si>
-  <si>
-    <t>1986-02</t>
-  </si>
-  <si>
-    <t>1986-03</t>
-  </si>
-  <si>
-    <t>1986-04</t>
-  </si>
-  <si>
-    <t>1986-05</t>
-  </si>
-  <si>
-    <t>1986-06</t>
-  </si>
-  <si>
-    <t>1986-07</t>
-  </si>
-  <si>
-    <t>1986-08</t>
-  </si>
-  <si>
-    <t>1986-09</t>
-  </si>
-  <si>
-    <t>1986-10</t>
-  </si>
-  <si>
-    <t>1986-11</t>
-  </si>
-  <si>
-    <t>1986-12</t>
-  </si>
-  <si>
-    <t>1987-01</t>
-  </si>
-  <si>
-    <t>1987-02</t>
-  </si>
-  <si>
-    <t>1987-03</t>
-  </si>
-  <si>
-    <t>1987-04</t>
-  </si>
-  <si>
-    <t>1987-05</t>
-  </si>
-  <si>
-    <t>1987-06</t>
-  </si>
-  <si>
-    <t>1987-07</t>
-  </si>
-  <si>
-    <t>1987-08</t>
-  </si>
-  <si>
-    <t>1987-09</t>
-  </si>
-  <si>
-    <t>1987-10</t>
-  </si>
-  <si>
-    <t>1987-11</t>
-  </si>
-  <si>
-    <t>1987-12</t>
-  </si>
-  <si>
-    <t>1988-01</t>
-  </si>
-  <si>
-    <t>1988-02</t>
-  </si>
-  <si>
-    <t>1988-03</t>
-  </si>
-  <si>
-    <t>1988-04</t>
-  </si>
-  <si>
-    <t>1988-05</t>
-  </si>
-  <si>
-    <t>1988-06</t>
-  </si>
-  <si>
-    <t>1988-07</t>
-  </si>
-  <si>
-    <t>1988-08</t>
-  </si>
-  <si>
-    <t>1988-09</t>
-  </si>
-  <si>
-    <t>1988-10</t>
-  </si>
-  <si>
-    <t>1988-11</t>
-  </si>
-  <si>
-    <t>1988-12</t>
-  </si>
-  <si>
-    <t>1989-01</t>
-  </si>
-  <si>
-    <t>1989-02</t>
-  </si>
-  <si>
-    <t>1989-03</t>
-  </si>
-  <si>
-    <t>1989-04</t>
-  </si>
-  <si>
-    <t>1989-05</t>
-  </si>
-  <si>
-    <t>1989-06</t>
-  </si>
-  <si>
-    <t>1989-07</t>
-  </si>
-  <si>
-    <t>1989-08</t>
-  </si>
-  <si>
-    <t>1989-09</t>
-  </si>
-  <si>
-    <t>1989-10</t>
-  </si>
-  <si>
-    <t>1989-11</t>
-  </si>
-  <si>
-    <t>1989-12</t>
-  </si>
-  <si>
-    <t>1990-01</t>
-  </si>
-  <si>
-    <t>1990-02</t>
-  </si>
-  <si>
-    <t>1990-03</t>
-  </si>
-  <si>
-    <t>1990-04</t>
-  </si>
-  <si>
-    <t>1990-05</t>
-  </si>
-  <si>
-    <t>1990-06</t>
-  </si>
-  <si>
-    <t>1990-07</t>
-  </si>
-  <si>
-    <t>1990-08</t>
-  </si>
-  <si>
-    <t>1990-09</t>
-  </si>
-  <si>
-    <t>1990-10</t>
-  </si>
-  <si>
-    <t>1990-11</t>
-  </si>
-  <si>
-    <t>1990-12</t>
-  </si>
-  <si>
-    <t>1991-01</t>
-  </si>
-  <si>
-    <t>1991-02</t>
-  </si>
-  <si>
-    <t>1991-03</t>
-  </si>
-  <si>
-    <t>1991-04</t>
-  </si>
-  <si>
-    <t>1991-05</t>
-  </si>
-  <si>
-    <t>1991-06</t>
-  </si>
-  <si>
-    <t>1991-07</t>
-  </si>
-  <si>
-    <t>1991-08</t>
-  </si>
-  <si>
-    <t>1991-09</t>
-  </si>
-  <si>
-    <t>1991-10</t>
-  </si>
-  <si>
-    <t>1991-11</t>
-  </si>
-  <si>
-    <t>1991-12</t>
-  </si>
-  <si>
-    <t>1992-01</t>
-  </si>
-  <si>
-    <t>1992-02</t>
-  </si>
-  <si>
-    <t>1992-03</t>
-  </si>
-  <si>
-    <t>1992-04</t>
-  </si>
-  <si>
-    <t>1992-05</t>
-  </si>
-  <si>
-    <t>1992-06</t>
-  </si>
-  <si>
-    <t>1992-07</t>
-  </si>
-  <si>
-    <t>1992-08</t>
-  </si>
-  <si>
-    <t>1992-09</t>
-  </si>
-  <si>
-    <t>1992-10</t>
-  </si>
-  <si>
-    <t>1992-11</t>
-  </si>
-  <si>
-    <t>1992-12</t>
-  </si>
-  <si>
-    <t>1993-01</t>
-  </si>
-  <si>
-    <t>1993-02</t>
-  </si>
-  <si>
-    <t>1993-03</t>
-  </si>
-  <si>
-    <t>1993-04</t>
-  </si>
-  <si>
-    <t>1993-05</t>
-  </si>
-  <si>
-    <t>1993-06</t>
-  </si>
-  <si>
-    <t>1993-07</t>
-  </si>
-  <si>
-    <t>1993-08</t>
-  </si>
-  <si>
-    <t>1993-09</t>
-  </si>
-  <si>
-    <t>1993-10</t>
-  </si>
-  <si>
-    <t>1993-11</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>1994-01</t>
-  </si>
-  <si>
-    <t>1994-02</t>
-  </si>
-  <si>
-    <t>1994-03</t>
-  </si>
-  <si>
-    <t>1994-04</t>
-  </si>
-  <si>
-    <t>1994-05</t>
-  </si>
-  <si>
-    <t>1994-06</t>
-  </si>
-  <si>
-    <t>1994-07</t>
-  </si>
-  <si>
-    <t>1994-08</t>
-  </si>
-  <si>
-    <t>1994-09</t>
-  </si>
-  <si>
-    <t>1994-10</t>
-  </si>
-  <si>
-    <t>1994-11</t>
-  </si>
-  <si>
-    <t>1994-12</t>
-  </si>
-  <si>
-    <t>1995-01</t>
-  </si>
-  <si>
-    <t>1995-02</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>1995-04</t>
-  </si>
-  <si>
-    <t>1995-05</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1995-07</t>
-  </si>
-  <si>
-    <t>1995-08</t>
-  </si>
-  <si>
-    <t>1995-09</t>
-  </si>
-  <si>
-    <t>1995-10</t>
-  </si>
-  <si>
-    <t>1995-11</t>
-  </si>
-  <si>
-    <t>1995-12</t>
-  </si>
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1842,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RW4"/>
+  <dimension ref="A1:RZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1850,1481 +366,2478 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:491">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MR1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MS1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MT1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MU1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MV1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MW1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="NT1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="NU1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="NV1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="NW1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="NX1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="NY1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="NZ1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="OA1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="OB1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="OC1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="OD1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="OE1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="OF1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="OG1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="OH1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="OI1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="OJ1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="OK1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="OL1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="OM1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="ON1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="OO1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="OP1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="OQ1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="OR1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="OS1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="OT1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="OU1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="OV1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="OW1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="OX1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="OY1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="OZ1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="PA1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="PB1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="PC1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="PD1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="PE1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="PF1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="PG1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="PH1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="PI1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="PJ1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="PK1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="PL1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="PM1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="PN1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="PO1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="PP1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="PQ1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="PR1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="PS1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="PT1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="PU1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="PV1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="PW1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="PX1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="PY1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="PZ1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="QA1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="QB1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="QC1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="QD1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="QE1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="QF1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="QG1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="QH1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="QI1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="QJ1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="QK1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="QL1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="QM1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="QN1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="QO1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="QP1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="QQ1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="QR1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="QS1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="QT1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="QU1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="QV1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="QW1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="QX1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="QY1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="QZ1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="RA1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="RB1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="RC1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="RD1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="RE1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="RF1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="RG1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="RH1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="RI1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="RJ1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="RK1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="RL1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="RM1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="RN1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="RO1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="RP1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="RQ1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="RR1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="RS1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="RT1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="RU1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="RV1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="RW1" s="1" t="s">
-        <v>489</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1981-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1981-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1981-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1981-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1981-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1981-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1981-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1981-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1981-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1981-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1981-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1981-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1982-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1982-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1982-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1982-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1982-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1982-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1982-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1982-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1982-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1982-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1982-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1982-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1983-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1983-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1983-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1983-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1983-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1983-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1983-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1983-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1983-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1983-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1983-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1983-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1984-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1984-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1984-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1984-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1984-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1984-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1984-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1984-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1984-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1984-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1984-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1985-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1985-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1985-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1985-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1985-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1985-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1985-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1985-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1985-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1985-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1985-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1985-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1986-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1986-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1986-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1986-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1986-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1986-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1986-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1986-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1986-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1986-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1986-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1986-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1987-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1987-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1987-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1987-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1987-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1987-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1987-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1987-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1987-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1987-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1987-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1987-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1988-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1988-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1988-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1988-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1988-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1988-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1988-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1988-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1988-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1988-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1988-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1988-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1989-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1989-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1989-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1989-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1989-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1989-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1989-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1989-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1989-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1989-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1989-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1990-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1990-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1990-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1990-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1990-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1990-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1990-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1990-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1990-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1990-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1990-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1990-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>1991-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>1991-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>1991-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>1991-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>1991-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>1991-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>1991-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>1991-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>1991-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>1992-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>1992-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>1992-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>1992-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>1992-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>1992-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>1992-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>1992-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>1992-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>1992-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>1992-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>1992-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>1993-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>1993-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>1993-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>1993-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>1993-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>1993-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>1993-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>1993-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>1993-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>1994-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>1994-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>1994-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>1994-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>1994-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>1994-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>1994-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>1994-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>1995-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>1995-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>1995-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>1995-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>1995-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>1995-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>1995-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>1995-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>1995-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>1995-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:491">
-      <c r="A2" s="1" t="s">
-        <v>490</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>15.93</v>
@@ -4796,10 +4309,21 @@
       <c r="RW2" t="n">
         <v>3255.25286517</v>
       </c>
+      <c r="RX2" t="n">
+        <v>3403.99877453</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>3272.85953361</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>2174.16504229</v>
+      </c>
     </row>
-    <row r="3" spans="1:491">
-      <c r="A3" s="1" t="s">
-        <v>491</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Import</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>18.16</v>
@@ -6271,10 +5795,21 @@
       <c r="RW3" t="n">
         <v>2538.13880995</v>
       </c>
+      <c r="RX3" t="n">
+        <v>2460.1772312</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>2419.14339891</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>1868.3286345</v>
+      </c>
     </row>
-    <row r="4" spans="1:491">
-      <c r="A4" s="1" t="s">
-        <v>492</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>-223</v>
@@ -7745,6 +7280,15 @@
       </c>
       <c r="RW4" t="n">
         <v>71711.405522</v>
+      </c>
+      <c r="RX4" t="n">
+        <v>94382.154333</v>
+      </c>
+      <c r="RY4" t="n">
+        <v>85371.61347</v>
+      </c>
+      <c r="RZ4" t="n">
+        <v>30583.640779</v>
       </c>
     </row>
   </sheetData>

--- a/data/924/GACC/SUM/Summary of Imports and Exports (In USD) B：Monthly - Historical.xlsx
+++ b/data/924/GACC/SUM/Summary of Imports and Exports (In USD) B：Monthly - Historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RZ4"/>
+  <dimension ref="A1:SA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,4463 +2832,4477 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Export</t>
+          <t>Balance</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.93</v>
+        <v>-223</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>-490</v>
       </c>
       <c r="D2" t="n">
-        <v>16.58</v>
+        <v>-740</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>-475</v>
       </c>
       <c r="F2" t="n">
-        <v>13.08</v>
+        <v>-535</v>
       </c>
       <c r="G2" t="n">
-        <v>18.72</v>
+        <v>-89</v>
       </c>
       <c r="H2" t="n">
-        <v>19.67</v>
+        <v>513</v>
       </c>
       <c r="I2" t="n">
-        <v>19.82</v>
+        <v>122</v>
       </c>
       <c r="J2" t="n">
-        <v>20.28</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>21.39</v>
+        <v>655</v>
       </c>
       <c r="L2" t="n">
-        <v>19.88</v>
+        <v>222</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72</v>
+        <v>563</v>
       </c>
       <c r="N2" t="n">
-        <v>17.3106</v>
+        <v>294.16</v>
       </c>
       <c r="O2" t="n">
-        <v>16.0119</v>
+        <v>115.55</v>
       </c>
       <c r="P2" t="n">
-        <v>18.6082</v>
+        <v>348.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.5776</v>
+        <v>-156.59</v>
       </c>
       <c r="R2" t="n">
-        <v>18.5114</v>
+        <v>226.56</v>
       </c>
       <c r="S2" t="n">
-        <v>18.8719</v>
+        <v>258.3</v>
       </c>
       <c r="T2" t="n">
-        <v>17.3113</v>
+        <v>265.13</v>
       </c>
       <c r="U2" t="n">
-        <v>17.0217</v>
+        <v>252.75</v>
       </c>
       <c r="V2" t="n">
-        <v>19.4832</v>
+        <v>384.54</v>
       </c>
       <c r="W2" t="n">
-        <v>17.6571</v>
+        <v>105.94</v>
       </c>
       <c r="X2" t="n">
-        <v>17.9028</v>
+        <v>315.93</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.4548</v>
+        <v>561.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.2596</v>
+        <v>-57.29</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.4981</v>
+        <v>-137.73</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.2396</v>
+        <v>141.55</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.9082</v>
+        <v>-65.42</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.7965</v>
+        <v>287.13</v>
       </c>
       <c r="AE2" t="n">
-        <v>18.2961</v>
+        <v>361.9</v>
       </c>
       <c r="AF2" t="n">
-        <v>20.9171</v>
+        <v>442.47</v>
       </c>
       <c r="AG2" t="n">
-        <v>20.404</v>
+        <v>217.17</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.4025</v>
+        <v>-353.29</v>
       </c>
       <c r="AI2" t="n">
-        <v>19.6768</v>
+        <v>-30.59</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.1051</v>
+        <v>-20.11</v>
       </c>
       <c r="AK2" t="n">
-        <v>25.2655</v>
+        <v>55.36</v>
       </c>
       <c r="AL2" t="n">
-        <v>17.8816</v>
+        <v>171.46</v>
       </c>
       <c r="AM2" t="n">
-        <v>16.2843</v>
+        <v>-53.47</v>
       </c>
       <c r="AN2" t="n">
-        <v>21.545</v>
+        <v>135.87</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.6735</v>
+        <v>-14.36</v>
       </c>
       <c r="AP2" t="n">
-        <v>22.0888</v>
+        <v>233.72</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21.1554</v>
+        <v>275.74</v>
       </c>
       <c r="AR2" t="n">
-        <v>20.6199</v>
+        <v>-43.59</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.5014</v>
+        <v>258.01</v>
       </c>
       <c r="AT2" t="n">
-        <v>20.019</v>
+        <v>-371.16</v>
       </c>
       <c r="AU2" t="n">
-        <v>22.0623</v>
+        <v>-144.73</v>
       </c>
       <c r="AV2" t="n">
-        <v>20.0255</v>
+        <v>-619.9299999999999</v>
       </c>
       <c r="AW2" t="n">
-        <v>24.4523</v>
+        <v>-946.55</v>
       </c>
       <c r="AX2" t="n">
-        <v>16.0211</v>
+        <v>-904.3</v>
       </c>
       <c r="AY2" t="n">
-        <v>15.0437</v>
+        <v>-1263.67</v>
       </c>
       <c r="AZ2" t="n">
-        <v>24.3157</v>
+        <v>-657.08</v>
       </c>
       <c r="BA2" t="n">
-        <v>19.8515</v>
+        <v>-1062.97</v>
       </c>
       <c r="BB2" t="n">
-        <v>22.0896</v>
+        <v>-1264.26</v>
       </c>
       <c r="BC2" t="n">
-        <v>20.7162</v>
+        <v>-1449.78</v>
       </c>
       <c r="BD2" t="n">
-        <v>22.5137</v>
+        <v>-1290.98</v>
       </c>
       <c r="BE2" t="n">
-        <v>22.7061</v>
+        <v>-1281.75</v>
       </c>
       <c r="BF2" t="n">
-        <v>23.2228</v>
+        <v>-1248.91</v>
       </c>
       <c r="BG2" t="n">
-        <v>24.9079</v>
+        <v>-893.29</v>
       </c>
       <c r="BH2" t="n">
-        <v>24.4261</v>
+        <v>-1371.23</v>
       </c>
       <c r="BI2" t="n">
-        <v>37.4512</v>
+        <v>-2511.32</v>
       </c>
       <c r="BJ2" t="n">
-        <v>18.4289</v>
+        <v>-449.79</v>
       </c>
       <c r="BK2" t="n">
-        <v>18.8026</v>
+        <v>-1287.81</v>
       </c>
       <c r="BL2" t="n">
-        <v>21.2329</v>
+        <v>-1267.12</v>
       </c>
       <c r="BM2" t="n">
-        <v>24.1103</v>
+        <v>-1478.43</v>
       </c>
       <c r="BN2" t="n">
-        <v>25.3569</v>
+        <v>-1048.71</v>
       </c>
       <c r="BO2" t="n">
-        <v>27.5948</v>
+        <v>-936.48</v>
       </c>
       <c r="BP2" t="n">
-        <v>26.7715</v>
+        <v>-766.86</v>
       </c>
       <c r="BQ2" t="n">
-        <v>26.9738</v>
+        <v>-958.52</v>
       </c>
       <c r="BR2" t="n">
-        <v>26.6012</v>
+        <v>-809.37</v>
       </c>
       <c r="BS2" t="n">
-        <v>30.1636</v>
+        <v>-384.78</v>
       </c>
       <c r="BT2" t="n">
-        <v>27.0009</v>
+        <v>-902.71</v>
       </c>
       <c r="BU2" t="n">
-        <v>38.446</v>
+        <v>-1732.9</v>
       </c>
       <c r="BV2" t="n">
-        <v>17.5707</v>
+        <v>-300.91</v>
       </c>
       <c r="BW2" t="n">
-        <v>25.174</v>
+        <v>-402.99</v>
       </c>
       <c r="BX2" t="n">
-        <v>30.0368</v>
+        <v>-335.83</v>
       </c>
       <c r="BY2" t="n">
-        <v>28.8815</v>
+        <v>-642.12</v>
       </c>
       <c r="BZ2" t="n">
-        <v>30.4398</v>
+        <v>-284.79</v>
       </c>
       <c r="CA2" t="n">
-        <v>34.2011</v>
+        <v>-37.62</v>
       </c>
       <c r="CB2" t="n">
-        <v>32.5891</v>
+        <v>-171.95</v>
       </c>
       <c r="CC2" t="n">
-        <v>32.3742</v>
+        <v>-201.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>33.8787</v>
+        <v>-322.4</v>
       </c>
       <c r="CE2" t="n">
-        <v>35.4907</v>
+        <v>163.88</v>
       </c>
       <c r="CF2" t="n">
-        <v>38.0968</v>
+        <v>-274.04</v>
       </c>
       <c r="CG2" t="n">
-        <v>56.6884</v>
+        <v>-1039.74</v>
       </c>
       <c r="CH2" t="n">
-        <v>26.8397</v>
+        <v>325.09</v>
       </c>
       <c r="CI2" t="n">
-        <v>27.2696</v>
+        <v>-424.49</v>
       </c>
       <c r="CJ2" t="n">
-        <v>35.3027</v>
+        <v>-513.15</v>
       </c>
       <c r="CK2" t="n">
-        <v>39.9506</v>
+        <v>-325.08</v>
       </c>
       <c r="CL2" t="n">
-        <v>43.9268</v>
+        <v>5.37</v>
       </c>
       <c r="CM2" t="n">
-        <v>37.2908</v>
+        <v>-225.68</v>
       </c>
       <c r="CN2" t="n">
-        <v>38.5266</v>
+        <v>-615.25</v>
       </c>
       <c r="CO2" t="n">
-        <v>40.1655</v>
+        <v>-728.08</v>
       </c>
       <c r="CP2" t="n">
-        <v>39.8162</v>
+        <v>-926.9</v>
       </c>
       <c r="CQ2" t="n">
-        <v>42.5566</v>
+        <v>-354.64</v>
       </c>
       <c r="CR2" t="n">
-        <v>39.9774</v>
+        <v>-1579.76</v>
       </c>
       <c r="CS2" t="n">
-        <v>63.7812</v>
+        <v>-2375</v>
       </c>
       <c r="CT2" t="n">
-        <v>28.1024</v>
+        <v>-104.78</v>
       </c>
       <c r="CU2" t="n">
-        <v>29.1502</v>
+        <v>-720.02</v>
       </c>
       <c r="CV2" t="n">
-        <v>39.3058</v>
+        <v>-1066.6</v>
       </c>
       <c r="CW2" t="n">
-        <v>39.3595</v>
+        <v>-1864.54</v>
       </c>
       <c r="CX2" t="n">
-        <v>44.2761</v>
+        <v>-881.22</v>
       </c>
       <c r="CY2" t="n">
-        <v>42.2074</v>
+        <v>-1157.94</v>
       </c>
       <c r="CZ2" t="n">
-        <v>44.0343</v>
+        <v>-773.75</v>
       </c>
       <c r="DA2" t="n">
-        <v>48.118</v>
+        <v>-271.35</v>
       </c>
       <c r="DB2" t="n">
-        <v>47.4463</v>
+        <v>325.08</v>
       </c>
       <c r="DC2" t="n">
-        <v>46.1299</v>
+        <v>-77.91</v>
       </c>
       <c r="DD2" t="n">
-        <v>48.2255</v>
+        <v>-69.84999999999999</v>
       </c>
       <c r="DE2" t="n">
-        <v>59.9075</v>
+        <v>7.08</v>
       </c>
       <c r="DF2" t="n">
-        <v>28.3984</v>
+        <v>275.3</v>
       </c>
       <c r="DG2" t="n">
-        <v>32.5067</v>
+        <v>-273.19</v>
       </c>
       <c r="DH2" t="n">
-        <v>46.9071</v>
+        <v>815.3200000000001</v>
       </c>
       <c r="DI2" t="n">
-        <v>47.9871</v>
+        <v>495.54</v>
       </c>
       <c r="DJ2" t="n">
-        <v>49.3425</v>
+        <v>372.72</v>
       </c>
       <c r="DK2" t="n">
-        <v>51.1849</v>
+        <v>866.14</v>
       </c>
       <c r="DL2" t="n">
-        <v>51.1849</v>
+        <v>720.02</v>
       </c>
       <c r="DM2" t="n">
-        <v>55.0602</v>
+        <v>916.96</v>
       </c>
       <c r="DN2" t="n">
-        <v>50.9519</v>
+        <v>690.37</v>
       </c>
       <c r="DO2" t="n">
-        <v>58.4909</v>
+        <v>1293.91</v>
       </c>
       <c r="DP2" t="n">
-        <v>55.1923</v>
+        <v>863.7</v>
       </c>
       <c r="DQ2" t="n">
-        <v>81.99769999999999</v>
+        <v>1608.55</v>
       </c>
       <c r="DR2" t="n">
-        <v>39.7733</v>
+        <v>905.77</v>
       </c>
       <c r="DS2" t="n">
-        <v>40.5967</v>
+        <v>938.3200000000001</v>
       </c>
       <c r="DT2" t="n">
-        <v>53.4268</v>
+        <v>400.22</v>
       </c>
       <c r="DU2" t="n">
-        <v>51.6531</v>
+        <v>3.8</v>
       </c>
       <c r="DV2" t="n">
-        <v>57.6601</v>
+        <v>611.6</v>
       </c>
       <c r="DW2" t="n">
-        <v>57.2709</v>
+        <v>657.51</v>
       </c>
       <c r="DX2" t="n">
-        <v>62.1791</v>
+        <v>1066.2</v>
       </c>
       <c r="DY2" t="n">
-        <v>63.0679</v>
+        <v>850.85</v>
       </c>
       <c r="DZ2" t="n">
-        <v>60.482</v>
+        <v>617.85</v>
       </c>
       <c r="EA2" t="n">
-        <v>60.6061</v>
+        <v>925.83</v>
       </c>
       <c r="EB2" t="n">
-        <v>64.0658</v>
+        <v>833.23</v>
       </c>
       <c r="EC2" t="n">
-        <v>92.1284</v>
+        <v>72.05</v>
       </c>
       <c r="ED2" t="n">
-        <v>39.91</v>
+        <v>975</v>
       </c>
       <c r="EE2" t="n">
-        <v>49.7</v>
+        <v>119</v>
       </c>
       <c r="EF2" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="EG2" t="n">
-        <v>63.49</v>
+        <v>265</v>
       </c>
       <c r="EH2" t="n">
-        <v>66.01000000000001</v>
+        <v>243</v>
       </c>
       <c r="EI2" t="n">
-        <v>76.58</v>
+        <v>838</v>
       </c>
       <c r="EJ2" t="n">
-        <v>71.59</v>
+        <v>886</v>
       </c>
       <c r="EK2" t="n">
-        <v>76.5</v>
+        <v>1280</v>
       </c>
       <c r="EL2" t="n">
-        <v>70.64</v>
+        <v>222</v>
       </c>
       <c r="EM2" t="n">
-        <v>76.86</v>
+        <v>571</v>
       </c>
       <c r="EN2" t="n">
-        <v>85.27</v>
+        <v>892</v>
       </c>
       <c r="EO2" t="n">
-        <v>113.23</v>
+        <v>-2020</v>
       </c>
       <c r="EP2" t="n">
-        <v>33.57</v>
+        <v>153</v>
       </c>
       <c r="EQ2" t="n">
-        <v>58.23</v>
+        <v>-650</v>
       </c>
       <c r="ER2" t="n">
-        <v>69.06</v>
+        <v>-676</v>
       </c>
       <c r="ES2" t="n">
-        <v>68.95</v>
+        <v>-589</v>
       </c>
       <c r="ET2" t="n">
-        <v>72.13</v>
+        <v>-1296</v>
       </c>
       <c r="EU2" t="n">
-        <v>69.48</v>
+        <v>-428</v>
       </c>
       <c r="EV2" t="n">
-        <v>76.27</v>
+        <v>-1136</v>
       </c>
       <c r="EW2" t="n">
-        <v>76.38</v>
+        <v>-1105</v>
       </c>
       <c r="EX2" t="n">
-        <v>88.42</v>
+        <v>-726</v>
       </c>
       <c r="EY2" t="n">
-        <v>80.52</v>
+        <v>-585</v>
       </c>
       <c r="EZ2" t="n">
-        <v>89.45999999999999</v>
+        <v>-595</v>
       </c>
       <c r="FA2" t="n">
-        <v>134.864</v>
+        <v>-4480.5</v>
       </c>
       <c r="FB2" t="n">
-        <v>48.81</v>
+        <v>-835</v>
       </c>
       <c r="FC2" t="n">
-        <v>57.33</v>
+        <v>-230</v>
       </c>
       <c r="FD2" t="n">
-        <v>84.88</v>
+        <v>-237</v>
       </c>
       <c r="FE2" t="n">
-        <v>89.34999999999999</v>
+        <v>-472</v>
       </c>
       <c r="FF2" t="n">
-        <v>94.91</v>
+        <v>23</v>
       </c>
       <c r="FG2" t="n">
-        <v>109</v>
+        <v>1043</v>
       </c>
       <c r="FH2" t="n">
-        <v>103.46</v>
+        <v>725</v>
       </c>
       <c r="FI2" t="n">
-        <v>101.1</v>
+        <v>75</v>
       </c>
       <c r="FJ2" t="n">
-        <v>104.36</v>
+        <v>1222</v>
       </c>
       <c r="FK2" t="n">
-        <v>104.3</v>
+        <v>1022</v>
       </c>
       <c r="FL2" t="n">
-        <v>125.69</v>
+        <v>2262</v>
       </c>
       <c r="FM2" t="n">
-        <v>185.08</v>
+        <v>592</v>
       </c>
       <c r="FN2" t="n">
-        <v>91.79000000000001</v>
+        <v>2679</v>
       </c>
       <c r="FO2" t="n">
-        <v>88.84999999999999</v>
+        <v>1762</v>
       </c>
       <c r="FP2" t="n">
-        <v>128.8</v>
+        <v>2639</v>
       </c>
       <c r="FQ2" t="n">
-        <v>119.91</v>
+        <v>1713</v>
       </c>
       <c r="FR2" t="n">
-        <v>128.17</v>
+        <v>1324</v>
       </c>
       <c r="FS2" t="n">
-        <v>140.37</v>
+        <v>3082</v>
       </c>
       <c r="FT2" t="n">
-        <v>122.68</v>
+        <v>1142</v>
       </c>
       <c r="FU2" t="n">
-        <v>125.2</v>
+        <v>940</v>
       </c>
       <c r="FV2" t="n">
-        <v>124.31</v>
+        <v>1139</v>
       </c>
       <c r="FW2" t="n">
-        <v>123.44</v>
+        <v>1373</v>
       </c>
       <c r="FX2" t="n">
-        <v>121.79</v>
+        <v>133</v>
       </c>
       <c r="FY2" t="n">
-        <v>172.44</v>
+        <v>-1230</v>
       </c>
       <c r="FZ2" t="n">
-        <v>91.75</v>
+        <v>-957</v>
       </c>
       <c r="GA2" t="n">
-        <v>86.54000000000001</v>
+        <v>517</v>
       </c>
       <c r="GB2" t="n">
-        <v>104.07</v>
+        <v>-728</v>
       </c>
       <c r="GC2" t="n">
-        <v>113.82</v>
+        <v>456</v>
       </c>
       <c r="GD2" t="n">
-        <v>121.55</v>
+        <v>146</v>
       </c>
       <c r="GE2" t="n">
-        <v>122.66</v>
+        <v>1358</v>
       </c>
       <c r="GF2" t="n">
-        <v>124.26</v>
+        <v>1122</v>
       </c>
       <c r="GG2" t="n">
-        <v>141.34</v>
+        <v>2995</v>
       </c>
       <c r="GH2" t="n">
-        <v>134.19</v>
+        <v>3125</v>
       </c>
       <c r="GI2" t="n">
-        <v>152.19</v>
+        <v>3910</v>
       </c>
       <c r="GJ2" t="n">
-        <v>136.21</v>
+        <v>1999</v>
       </c>
       <c r="GK2" t="n">
-        <v>183.26</v>
+        <v>-1702</v>
       </c>
       <c r="GL2" t="n">
-        <v>116.92</v>
+        <v>1715</v>
       </c>
       <c r="GM2" t="n">
-        <v>98.47</v>
+        <v>2118</v>
       </c>
       <c r="GN2" t="n">
-        <v>140.46</v>
+        <v>2948</v>
       </c>
       <c r="GO2" t="n">
-        <v>147.95</v>
+        <v>3575</v>
       </c>
       <c r="GP2" t="n">
-        <v>151.92</v>
+        <v>3634</v>
       </c>
       <c r="GQ2" t="n">
-        <v>153.73</v>
+        <v>4153</v>
       </c>
       <c r="GR2" t="n">
-        <v>155.83</v>
+        <v>2763</v>
       </c>
       <c r="GS2" t="n">
-        <v>160.27</v>
+        <v>4957</v>
       </c>
       <c r="GT2" t="n">
-        <v>165.63</v>
+        <v>5083</v>
       </c>
       <c r="GU2" t="n">
-        <v>178.17</v>
+        <v>4975</v>
       </c>
       <c r="GV2" t="n">
-        <v>167.52</v>
+        <v>4655</v>
       </c>
       <c r="GW2" t="n">
-        <v>191.9</v>
+        <v>112</v>
       </c>
       <c r="GX2" t="n">
-        <v>126.76</v>
+        <v>3981</v>
       </c>
       <c r="GY2" t="n">
-        <v>121.58</v>
+        <v>3165</v>
       </c>
       <c r="GZ2" t="n">
-        <v>152.38</v>
+        <v>3473</v>
       </c>
       <c r="HA2" t="n">
-        <v>159.52</v>
+        <v>4266</v>
       </c>
       <c r="HB2" t="n">
-        <v>149.27</v>
+        <v>3636</v>
       </c>
       <c r="HC2" t="n">
-        <v>156.09</v>
+        <v>3752</v>
       </c>
       <c r="HD2" t="n">
-        <v>161.57</v>
+        <v>4193</v>
       </c>
       <c r="HE2" t="n">
-        <v>155.57</v>
+        <v>4678</v>
       </c>
       <c r="HF2" t="n">
-        <v>154.76</v>
+        <v>3933</v>
       </c>
       <c r="HG2" t="n">
-        <v>147.3</v>
+        <v>3077</v>
       </c>
       <c r="HH2" t="n">
-        <v>151</v>
+        <v>2800</v>
       </c>
       <c r="HI2" t="n">
-        <v>200.09</v>
+        <v>2330</v>
       </c>
       <c r="HJ2" t="n">
-        <v>113.7</v>
+        <v>1480</v>
       </c>
       <c r="HK2" t="n">
-        <v>109.9</v>
+        <v>2280</v>
       </c>
       <c r="HL2" t="n">
-        <v>148.1</v>
+        <v>440</v>
       </c>
       <c r="HM2" t="n">
-        <v>147.8</v>
+        <v>960</v>
       </c>
       <c r="HN2" t="n">
-        <v>155.2</v>
+        <v>1870</v>
       </c>
       <c r="HO2" t="n">
-        <v>153.1</v>
+        <v>790</v>
       </c>
       <c r="HP2" t="n">
-        <v>173.2</v>
+        <v>3399</v>
       </c>
       <c r="HQ2" t="n">
-        <v>183.2</v>
+        <v>4880</v>
       </c>
       <c r="HR2" t="n">
-        <v>185.7</v>
+        <v>3302</v>
       </c>
       <c r="HS2" t="n">
-        <v>182.33</v>
+        <v>4439</v>
       </c>
       <c r="HT2" t="n">
-        <v>194.77</v>
+        <v>2568</v>
       </c>
       <c r="HU2" t="n">
-        <v>202.4</v>
+        <v>2820</v>
       </c>
       <c r="HV2" t="n">
-        <v>168</v>
+        <v>1540</v>
       </c>
       <c r="HW2" t="n">
-        <v>147.8</v>
+        <v>1350</v>
       </c>
       <c r="HX2" t="n">
-        <v>201.5</v>
+        <v>2340</v>
       </c>
       <c r="HY2" t="n">
-        <v>205</v>
+        <v>2140</v>
       </c>
       <c r="HZ2" t="n">
-        <v>201</v>
+        <v>3130</v>
       </c>
       <c r="IA2" t="n">
-        <v>221.9</v>
+        <v>1890</v>
       </c>
       <c r="IB2" t="n">
-        <v>214.8</v>
+        <v>1990</v>
       </c>
       <c r="IC2" t="n">
-        <v>233.3</v>
+        <v>2540</v>
       </c>
       <c r="ID2" t="n">
-        <v>229.7</v>
+        <v>2250</v>
       </c>
       <c r="IE2" t="n">
-        <v>228</v>
+        <v>3880</v>
       </c>
       <c r="IF2" t="n">
-        <v>221.6</v>
+        <v>500</v>
       </c>
       <c r="IG2" t="n">
-        <v>219.9</v>
+        <v>580</v>
       </c>
       <c r="IH2" t="n">
-        <v>169.3</v>
+        <v>1380</v>
       </c>
       <c r="II2" t="n">
-        <v>192</v>
+        <v>970</v>
       </c>
       <c r="IJ2" t="n">
-        <v>231.4</v>
+        <v>2370</v>
       </c>
       <c r="IK2" t="n">
-        <v>227.9</v>
+        <v>930</v>
       </c>
       <c r="IL2" t="n">
-        <v>208.1</v>
+        <v>2000</v>
       </c>
       <c r="IM2" t="n">
-        <v>220.8</v>
+        <v>830</v>
       </c>
       <c r="IN2" t="n">
-        <v>228.9</v>
+        <v>1930</v>
       </c>
       <c r="IO2" t="n">
-        <v>235.4</v>
+        <v>1380</v>
       </c>
       <c r="IP2" t="n">
-        <v>239.9</v>
+        <v>2140</v>
       </c>
       <c r="IQ2" t="n">
-        <v>227.9</v>
+        <v>3890</v>
       </c>
       <c r="IR2" t="n">
-        <v>240</v>
+        <v>3150</v>
       </c>
       <c r="IS2" t="n">
-        <v>245</v>
+        <v>2110</v>
       </c>
       <c r="IT2" t="n">
-        <v>217</v>
+        <v>2720</v>
       </c>
       <c r="IU2" t="n">
-        <v>191.3</v>
+        <v>3220</v>
       </c>
       <c r="IV2" t="n">
-        <v>237.9</v>
+        <v>1310</v>
       </c>
       <c r="IW2" t="n">
-        <v>267.2</v>
+        <v>970</v>
       </c>
       <c r="IX2" t="n">
-        <v>246.4</v>
+        <v>2210</v>
       </c>
       <c r="IY2" t="n">
-        <v>260.2</v>
+        <v>2920</v>
       </c>
       <c r="IZ2" t="n">
-        <v>292.1</v>
+        <v>2220</v>
       </c>
       <c r="JA2" t="n">
-        <v>294.37</v>
+        <v>2230</v>
       </c>
       <c r="JB2" t="n">
-        <v>319.1</v>
+        <v>2120</v>
       </c>
       <c r="JC2" t="n">
-        <v>299.5</v>
+        <v>4750</v>
       </c>
       <c r="JD2" t="n">
-        <v>312.1</v>
+        <v>2480</v>
       </c>
       <c r="JE2" t="n">
-        <v>318.89</v>
+        <v>3157</v>
       </c>
       <c r="JF2" t="n">
-        <v>297.54</v>
+        <v>-1205</v>
       </c>
       <c r="JG2" t="n">
-        <v>244.5</v>
+        <v>740</v>
       </c>
       <c r="JH2" t="n">
-        <v>320.83</v>
+        <v>-416</v>
       </c>
       <c r="JI2" t="n">
-        <v>355.89</v>
+        <v>1026</v>
       </c>
       <c r="JJ2" t="n">
-        <v>337.86</v>
+        <v>2213</v>
       </c>
       <c r="JK2" t="n">
-        <v>344.63</v>
+        <v>2137</v>
       </c>
       <c r="JL2" t="n">
-        <v>380.88</v>
+        <v>1588</v>
       </c>
       <c r="JM2" t="n">
-        <v>373.95</v>
+        <v>2797</v>
       </c>
       <c r="JN2" t="n">
-        <v>419.21</v>
+        <v>304</v>
       </c>
       <c r="JO2" t="n">
-        <v>408.93</v>
+        <v>5739</v>
       </c>
       <c r="JP2" t="n">
-        <v>417.49</v>
+        <v>4868</v>
       </c>
       <c r="JQ2" t="n">
-        <v>480.58</v>
+        <v>5729</v>
       </c>
       <c r="JR2" t="n">
-        <v>357.1</v>
+        <v>-6</v>
       </c>
       <c r="JS2" t="n">
-        <v>340.48</v>
+        <v>-7989</v>
       </c>
       <c r="JT2" t="n">
-        <v>458.45</v>
+        <v>-640</v>
       </c>
       <c r="JU2" t="n">
-        <v>471.09</v>
+        <v>-2421</v>
       </c>
       <c r="JV2" t="n">
-        <v>448.44</v>
+        <v>1859</v>
       </c>
       <c r="JW2" t="n">
-        <v>505.18</v>
+        <v>1625</v>
       </c>
       <c r="JX2" t="n">
-        <v>509.53</v>
+        <v>1954</v>
       </c>
       <c r="JY2" t="n">
-        <v>513.45</v>
+        <v>4492</v>
       </c>
       <c r="JZ2" t="n">
-        <v>557.54</v>
+        <v>5008</v>
       </c>
       <c r="KA2" t="n">
-        <v>525.1</v>
+        <v>7074</v>
       </c>
       <c r="KB2" t="n">
-        <v>609</v>
+        <v>9912</v>
       </c>
       <c r="KC2" t="n">
-        <v>637.9</v>
+        <v>11076</v>
       </c>
       <c r="KD2" t="n">
-        <v>507.27</v>
+        <v>6469</v>
       </c>
       <c r="KE2" t="n">
-        <v>442.76</v>
+        <v>4374</v>
       </c>
       <c r="KF2" t="n">
-        <v>608.45</v>
+        <v>5626</v>
       </c>
       <c r="KG2" t="n">
-        <v>620.84</v>
+        <v>4427</v>
       </c>
       <c r="KH2" t="n">
-        <v>584.22</v>
+        <v>9006</v>
       </c>
       <c r="KI2" t="n">
-        <v>659.3</v>
+        <v>9703</v>
       </c>
       <c r="KJ2" t="n">
-        <v>655.3200000000001</v>
+        <v>10626</v>
       </c>
       <c r="KK2" t="n">
-        <v>683.72</v>
+        <v>10592</v>
       </c>
       <c r="KL2" t="n">
-        <v>701.48</v>
+        <v>7530</v>
       </c>
       <c r="KM2" t="n">
-        <v>680.25</v>
+        <v>11982</v>
       </c>
       <c r="KN2" t="n">
-        <v>721.95</v>
+        <v>10531</v>
       </c>
       <c r="KO2" t="n">
-        <v>753.97</v>
+        <v>11016</v>
       </c>
       <c r="KP2" t="n">
-        <v>651.26</v>
+        <v>9492</v>
       </c>
       <c r="KQ2" t="n">
-        <v>541.0599999999999</v>
+        <v>2425</v>
       </c>
       <c r="KR2" t="n">
-        <v>780.1900000000001</v>
+        <v>11189</v>
       </c>
       <c r="KS2" t="n">
-        <v>768.28</v>
+        <v>10460</v>
       </c>
       <c r="KT2" t="n">
-        <v>730.72</v>
+        <v>13000</v>
       </c>
       <c r="KU2" t="n">
-        <v>812.8099999999999</v>
+        <v>14502.919</v>
       </c>
       <c r="KV2" t="n">
-        <v>802.97</v>
+        <v>14623.639</v>
       </c>
       <c r="KW2" t="n">
-        <v>907.26</v>
+        <v>18800</v>
       </c>
       <c r="KX2" t="n">
-        <v>915.76</v>
+        <v>15290</v>
       </c>
       <c r="KY2" t="n">
-        <v>880.97</v>
+        <v>23830</v>
       </c>
       <c r="KZ2" t="n">
-        <v>958.0700000000001</v>
+        <v>22930</v>
       </c>
       <c r="LA2" t="n">
-        <v>940</v>
+        <v>20990</v>
       </c>
       <c r="LB2" t="n">
-        <v>865.9400000000001</v>
+        <v>15880</v>
       </c>
       <c r="LC2" t="n">
-        <v>821.49</v>
+        <v>23760</v>
       </c>
       <c r="LD2" t="n">
-        <v>835.76</v>
+        <v>6871</v>
       </c>
       <c r="LE2" t="n">
-        <v>974.9400000000001</v>
+        <v>16846</v>
       </c>
       <c r="LF2" t="n">
-        <v>940.74</v>
+        <v>22474</v>
       </c>
       <c r="LG2" t="n">
-        <v>1033.94</v>
+        <v>26910</v>
       </c>
       <c r="LH2" t="n">
-        <v>1078.3</v>
+        <v>24357</v>
       </c>
       <c r="LI2" t="n">
-        <v>1114.24</v>
+        <v>24974</v>
       </c>
       <c r="LJ2" t="n">
-        <v>1123.51</v>
+        <v>23810</v>
       </c>
       <c r="LK2" t="n">
-        <v>1077.45</v>
+        <v>27051</v>
       </c>
       <c r="LL2" t="n">
-        <v>1175.92</v>
+        <v>26281</v>
       </c>
       <c r="LM2" t="n">
-        <v>1144.12</v>
+        <v>22687.005</v>
       </c>
       <c r="LN2" t="n">
-        <v>1097.56</v>
+        <v>19475</v>
       </c>
       <c r="LO2" t="n">
-        <v>873.61</v>
+        <v>8215</v>
       </c>
       <c r="LP2" t="n">
-        <v>1089.98</v>
+        <v>13132</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1190.05</v>
+        <v>16611</v>
       </c>
       <c r="LR2" t="n">
-        <v>1206.99</v>
+        <v>19918</v>
       </c>
       <c r="LS2" t="n">
-        <v>1213.2</v>
+        <v>20874</v>
       </c>
       <c r="LT2" t="n">
-        <v>1368.37</v>
+        <v>25425</v>
       </c>
       <c r="LU2" t="n">
-        <v>1353.87</v>
+        <v>29388</v>
       </c>
       <c r="LV2" t="n">
-        <v>1367.59</v>
+        <v>29967</v>
       </c>
       <c r="LW2" t="n">
-        <v>1285.32</v>
+        <v>35784</v>
       </c>
       <c r="LX2" t="n">
-        <v>1149.85</v>
+        <v>40329</v>
       </c>
       <c r="LY2" t="n">
-        <v>1110.55</v>
+        <v>39008</v>
       </c>
       <c r="LZ2" t="n">
-        <v>904.85</v>
+        <v>39113</v>
       </c>
       <c r="MA2" t="n">
-        <v>648.66</v>
+        <v>4807</v>
       </c>
       <c r="MB2" t="n">
-        <v>902.1900000000001</v>
+        <v>18367</v>
       </c>
       <c r="MC2" t="n">
-        <v>919.23</v>
+        <v>12940</v>
       </c>
       <c r="MD2" t="n">
-        <v>886.99</v>
+        <v>13034</v>
       </c>
       <c r="ME2" t="n">
-        <v>954.58</v>
+        <v>7947</v>
       </c>
       <c r="MF2" t="n">
-        <v>1053.91</v>
+        <v>10240</v>
       </c>
       <c r="MG2" t="n">
-        <v>1036.63</v>
+        <v>15420</v>
       </c>
       <c r="MH2" t="n">
-        <v>1158.65</v>
+        <v>12667</v>
       </c>
       <c r="MI2" t="n">
-        <v>1106.42</v>
+        <v>23794</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1136.59</v>
+        <v>18968</v>
       </c>
       <c r="MK2" t="n">
-        <v>1307.4</v>
+        <v>18391</v>
       </c>
       <c r="ML2" t="n">
-        <v>1094.9</v>
+        <v>13960</v>
       </c>
       <c r="MM2" t="n">
-        <v>944.63</v>
+        <v>7338</v>
       </c>
       <c r="MN2" t="n">
-        <v>1120.59</v>
+        <v>-7407</v>
       </c>
       <c r="MO2" t="n">
-        <v>1198.51</v>
+        <v>1410</v>
       </c>
       <c r="MP2" t="n">
-        <v>1316.61</v>
+        <v>19449</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1373.39</v>
+        <v>20186</v>
       </c>
       <c r="MR2" t="n">
-        <v>1454.34</v>
+        <v>28544</v>
       </c>
       <c r="MS2" t="n">
-        <v>1392.36</v>
+        <v>19756</v>
       </c>
       <c r="MT2" t="n">
-        <v>1449.23</v>
+        <v>16563</v>
       </c>
       <c r="MU2" t="n">
-        <v>1359.17</v>
+        <v>26807</v>
       </c>
       <c r="MV2" t="n">
-        <v>1532.79</v>
+        <v>22295</v>
       </c>
       <c r="MW2" t="n">
-        <v>1541.01</v>
+        <v>12608</v>
       </c>
       <c r="MX2" t="n">
-        <v>1506.97</v>
+        <v>5782</v>
       </c>
       <c r="MY2" t="n">
-        <v>966.8099999999999</v>
+        <v>-7873</v>
       </c>
       <c r="MZ2" t="n">
-        <v>1521.34</v>
+        <v>-190</v>
       </c>
       <c r="NA2" t="n">
-        <v>1555.92</v>
+        <v>11222</v>
       </c>
       <c r="NB2" t="n">
-        <v>1570.51</v>
+        <v>12929</v>
       </c>
       <c r="NC2" t="n">
-        <v>1618.95</v>
+        <v>22194</v>
       </c>
       <c r="ND2" t="n">
-        <v>1751.51</v>
+        <v>30136</v>
       </c>
       <c r="NE2" t="n">
-        <v>1732.39</v>
+        <v>17854</v>
       </c>
       <c r="NF2" t="n">
-        <v>1695.8</v>
+        <v>14586</v>
       </c>
       <c r="NG2" t="n">
-        <v>1573.52</v>
+        <v>17134</v>
       </c>
       <c r="NH2" t="n">
-        <v>1743.86</v>
+        <v>14663</v>
       </c>
       <c r="NI2" t="n">
-        <v>1746.23</v>
+        <v>16460</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1498.61</v>
+        <v>27014</v>
       </c>
       <c r="NK2" t="n">
-        <v>1144.09</v>
+        <v>-32002</v>
       </c>
       <c r="NL2" t="n">
-        <v>1655.77</v>
+        <v>5183</v>
       </c>
       <c r="NM2" t="n">
-        <v>1631.29</v>
+        <v>18555</v>
       </c>
       <c r="NN2" t="n">
-        <v>1810.34</v>
+        <v>18185</v>
       </c>
       <c r="NO2" t="n">
-        <v>1798.31</v>
+        <v>31649</v>
       </c>
       <c r="NP2" t="n">
-        <v>1769.18</v>
+        <v>25301</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1778.7</v>
+        <v>26418</v>
       </c>
       <c r="NR2" t="n">
-        <v>1861.16</v>
+        <v>27464</v>
       </c>
       <c r="NS2" t="n">
-        <v>1755.16</v>
+        <v>32070</v>
       </c>
       <c r="NT2" t="n">
-        <v>1793.41</v>
+        <v>19481</v>
       </c>
       <c r="NU2" t="n">
-        <v>1991.12</v>
+        <v>30991</v>
       </c>
       <c r="NV2" t="n">
-        <v>1872.87692325</v>
+        <v>28089.423661</v>
       </c>
       <c r="NW2" t="n">
-        <v>1393.0415085</v>
+        <v>14882.516326</v>
       </c>
       <c r="NX2" t="n">
-        <v>1821.01791541</v>
+        <v>-906.434609</v>
       </c>
       <c r="NY2" t="n">
-        <v>1869.30905182</v>
+        <v>18361.852966</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1826.79518593</v>
+        <v>20658.599912</v>
       </c>
       <c r="OA2" t="n">
-        <v>1742.35030598</v>
+        <v>27267.122256</v>
       </c>
       <c r="OB2" t="n">
-        <v>1859.15008193</v>
+        <v>17757.906068</v>
       </c>
       <c r="OC2" t="n">
-        <v>1904.92544673</v>
+        <v>28133.242691</v>
       </c>
       <c r="OD2" t="n">
-        <v>1853.13292343</v>
+        <v>14753.457493</v>
       </c>
       <c r="OE2" t="n">
-        <v>1852.93758314</v>
+        <v>31034.989159</v>
       </c>
       <c r="OF2" t="n">
-        <v>2020.82966799</v>
+        <v>33753.337427</v>
       </c>
       <c r="OG2" t="n">
-        <v>2073.67339394</v>
+        <v>25228.517189</v>
       </c>
       <c r="OH2" t="n">
-        <v>2070.36945706</v>
+        <v>32022.657435</v>
       </c>
       <c r="OI2" t="n">
-        <v>1140.5247708</v>
+        <v>-22568.97352</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1700.01624933</v>
+        <v>7984.652293</v>
       </c>
       <c r="OK2" t="n">
-        <v>1884.49581169</v>
+        <v>18663.664462</v>
       </c>
       <c r="OL2" t="n">
-        <v>1955.96391322</v>
+        <v>36239.387936</v>
       </c>
       <c r="OM2" t="n">
-        <v>1867.56479308</v>
+        <v>31894.16759</v>
       </c>
       <c r="ON2" t="n">
-        <v>2127.44123506</v>
+        <v>47352.991573</v>
       </c>
       <c r="OO2" t="n">
-        <v>2083.29554033</v>
+        <v>49876.124954</v>
       </c>
       <c r="OP2" t="n">
-        <v>2135.61657335</v>
+        <v>31213.307824</v>
       </c>
       <c r="OQ2" t="n">
-        <v>2067.71186062</v>
+        <v>45699.38981</v>
       </c>
       <c r="OR2" t="n">
-        <v>2115.63050032</v>
+        <v>54764.55946</v>
       </c>
       <c r="OS2" t="n">
-        <v>2274.29625834</v>
+        <v>49916.118093</v>
       </c>
       <c r="OT2" t="n">
-        <v>1998.76251468</v>
+        <v>59314.784288</v>
       </c>
       <c r="OU2" t="n">
-        <v>1689.46683718</v>
+        <v>60462.097833</v>
       </c>
       <c r="OV2" t="n">
-        <v>1442.34930544</v>
+        <v>2516.035229</v>
       </c>
       <c r="OW2" t="n">
-        <v>1759.02340856</v>
+        <v>33201.528314</v>
       </c>
       <c r="OX2" t="n">
-        <v>1888.00118125</v>
+        <v>57154.574663</v>
       </c>
       <c r="OY2" t="n">
-        <v>1895.44674638</v>
+        <v>45198.150754</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1931.61132466</v>
+        <v>41869.517083</v>
       </c>
       <c r="PA2" t="n">
-        <v>1961.61405324</v>
+        <v>59688.193697</v>
       </c>
       <c r="PB2" t="n">
-        <v>2049.22588004</v>
+        <v>59605.54082</v>
       </c>
       <c r="PC2" t="n">
-        <v>1921.89023026</v>
+        <v>61286.229813</v>
       </c>
       <c r="PD2" t="n">
-        <v>1965.92966171</v>
+        <v>53976.489959</v>
       </c>
       <c r="PE2" t="n">
-        <v>2231.36109852</v>
+        <v>59630.584152</v>
       </c>
       <c r="PF2" t="n">
-        <v>1693.98917901</v>
+        <v>56851.976911</v>
       </c>
       <c r="PG2" t="n">
-        <v>1217.07158577</v>
+        <v>28149.063738</v>
       </c>
       <c r="PH2" t="n">
-        <v>1550.98178215</v>
+        <v>24910.412679</v>
       </c>
       <c r="PI2" t="n">
-        <v>1666.88631697</v>
+        <v>39859.478866</v>
       </c>
       <c r="PJ2" t="n">
-        <v>1757.10064909</v>
+        <v>44842.622189</v>
       </c>
       <c r="PK2" t="n">
-        <v>1766.04575996</v>
+        <v>45342.237484</v>
       </c>
       <c r="PL2" t="n">
-        <v>1806.59215382</v>
+        <v>48347.075917</v>
       </c>
       <c r="PM2" t="n">
-        <v>1888.30688437</v>
+        <v>50096.616501</v>
       </c>
       <c r="PN2" t="n">
-        <v>1834.39990079</v>
+        <v>40430.203099</v>
       </c>
       <c r="PO2" t="n">
-        <v>1768.36414355</v>
+        <v>48165.139899</v>
       </c>
       <c r="PP2" t="n">
-        <v>1935.60726563</v>
+        <v>43083.931164</v>
       </c>
       <c r="PQ2" t="n">
-        <v>2090.96630682</v>
+        <v>39626.215364</v>
       </c>
       <c r="PR2" t="n">
-        <v>1802.73315341</v>
+        <v>48677.270647</v>
       </c>
       <c r="PS2" t="n">
-        <v>1188.47637378</v>
+        <v>-10938.882586</v>
       </c>
       <c r="PT2" t="n">
-        <v>1792.47867518</v>
+        <v>22706.702188</v>
       </c>
       <c r="PU2" t="n">
-        <v>1777.63392504</v>
+        <v>36512.060235</v>
       </c>
       <c r="PV2" t="n">
-        <v>1890.88364555</v>
+        <v>39922.820391</v>
       </c>
       <c r="PW2" t="n">
-        <v>1947.54558958</v>
+        <v>41217.504245</v>
       </c>
       <c r="PX2" t="n">
-        <v>1921.19127804</v>
+        <v>44849.824569</v>
       </c>
       <c r="PY2" t="n">
-        <v>1980.42702181</v>
+        <v>40046.045255</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1979.43516418</v>
+        <v>27376.337985</v>
       </c>
       <c r="QA2" t="n">
-        <v>1879.03059471</v>
+        <v>36898.77025</v>
       </c>
       <c r="QB2" t="n">
-        <v>2158.38590872</v>
+        <v>38433.124127</v>
       </c>
       <c r="QC2" t="n">
-        <v>2315.22791081</v>
+        <v>53850.406006</v>
       </c>
       <c r="QD2" t="n">
-        <v>1994.69129929</v>
+        <v>18318.610867</v>
       </c>
       <c r="QE2" t="n">
-        <v>1705.48504352</v>
+        <v>32203.56541</v>
       </c>
       <c r="QF2" t="n">
-        <v>1739.00288781</v>
+        <v>-5794.129451</v>
       </c>
       <c r="QG2" t="n">
-        <v>1989.36286966</v>
+        <v>26217.153089</v>
       </c>
       <c r="QH2" t="n">
-        <v>2115.91897826</v>
+        <v>23414.591373</v>
       </c>
       <c r="QI2" t="n">
-        <v>2155.96364094</v>
+        <v>40905.741944</v>
       </c>
       <c r="QJ2" t="n">
-        <v>2144.02541259</v>
+        <v>27488.286945</v>
       </c>
       <c r="QK2" t="n">
-        <v>2169.49116349</v>
+        <v>26297.057888</v>
       </c>
       <c r="QL2" t="n">
-        <v>2253.9769572</v>
+        <v>30263.257381</v>
       </c>
       <c r="QM2" t="n">
-        <v>2147.59383426</v>
+        <v>32973.751646</v>
       </c>
       <c r="QN2" t="n">
-        <v>2242.94203876</v>
+        <v>41859.2231</v>
       </c>
       <c r="QO2" t="n">
-        <v>2208.50296842</v>
+        <v>56800.177976</v>
       </c>
       <c r="QP2" t="n">
-        <v>2180.08133531</v>
+        <v>38338.45748</v>
       </c>
       <c r="QQ2" t="n">
-        <v>1353.3017003</v>
+        <v>2959.135312</v>
       </c>
       <c r="QR2" t="n">
-        <v>1982.3443559</v>
+        <v>31366.945569</v>
       </c>
       <c r="QS2" t="n">
-        <v>1936.0631573</v>
+        <v>13074.420769</v>
       </c>
       <c r="QT2" t="n">
-        <v>2139.17758058</v>
+        <v>41144.505192</v>
       </c>
       <c r="QU2" t="n">
-        <v>2124.65709908</v>
+        <v>49649.049026</v>
       </c>
       <c r="QV2" t="n">
-        <v>2217.72397536</v>
+        <v>44014.525438</v>
       </c>
       <c r="QW2" t="n">
-        <v>2148.73286812</v>
+        <v>34716.129886</v>
       </c>
       <c r="QX2" t="n">
-        <v>2182.1487434</v>
+        <v>39078.35216</v>
       </c>
       <c r="QY2" t="n">
-        <v>2129.78599493</v>
+        <v>42307.979877</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2214.42324956</v>
+        <v>37175.871131</v>
       </c>
       <c r="RA2" t="n">
-        <v>2386.38083204</v>
+        <v>47247.734152</v>
       </c>
       <c r="RB2" t="n">
-        <v>2115.96942635</v>
+        <v>54685.831007</v>
       </c>
       <c r="RC2" t="n">
-        <v>803.79232341</v>
+        <v>-61993.404356</v>
       </c>
       <c r="RD2" t="n">
-        <v>1845.70796647</v>
+        <v>19963.233621</v>
       </c>
       <c r="RE2" t="n">
-        <v>1994.82286275</v>
+        <v>44963.936222</v>
       </c>
       <c r="RF2" t="n">
-        <v>2064.30762282</v>
+        <v>61918.560391</v>
       </c>
       <c r="RG2" t="n">
-        <v>2128.48809831</v>
+        <v>44794.261557</v>
       </c>
       <c r="RH2" t="n">
-        <v>2368.43989753</v>
+        <v>60472.511513</v>
       </c>
       <c r="RI2" t="n">
-        <v>2343.6472796</v>
+        <v>57247.681266</v>
       </c>
       <c r="RJ2" t="n">
-        <v>2386.18870896</v>
+        <v>35584.068019</v>
       </c>
       <c r="RK2" t="n">
-        <v>2362.63966298</v>
+        <v>57530.821689</v>
       </c>
       <c r="RL2" t="n">
-        <v>2669.33854847</v>
+        <v>74782.906741</v>
       </c>
       <c r="RM2" t="n">
-        <v>2818.32487931</v>
+        <v>76990.873553</v>
       </c>
       <c r="RN2" t="n">
-        <v>2638.77419169</v>
+        <v>61653.148978</v>
       </c>
       <c r="RO2" t="n">
-        <v>2048.08800398</v>
+        <v>35322.600754</v>
       </c>
       <c r="RP2" t="n">
-        <v>2410.85487078</v>
+        <v>11772.87142</v>
       </c>
       <c r="RQ2" t="n">
-        <v>2639.23793224</v>
+        <v>40880.140526</v>
       </c>
       <c r="RR2" t="n">
-        <v>2639.22346922</v>
+        <v>43258.710115</v>
       </c>
       <c r="RS2" t="n">
-        <v>2814.08765678</v>
+        <v>50101.33157</v>
       </c>
       <c r="RT2" t="n">
-        <v>2826.61215036</v>
+        <v>55893.611123</v>
       </c>
       <c r="RU2" t="n">
-        <v>2943.15478776</v>
+        <v>59146.084623</v>
       </c>
       <c r="RV2" t="n">
-        <v>3056.44446916</v>
+        <v>68027.898226</v>
       </c>
       <c r="RW2" t="n">
-        <v>3255.25286517</v>
+        <v>71813.831979</v>
       </c>
       <c r="RX2" t="n">
-        <v>3403.99877453</v>
+        <v>94269.707287</v>
       </c>
       <c r="RY2" t="n">
-        <v>3272.85953361</v>
+        <v>85066.140698</v>
       </c>
       <c r="RZ2" t="n">
-        <v>2174.16504229</v>
+        <v>30496.378591</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>47380.352261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Import</t>
+          <t>Export</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.16</v>
+        <v>15.93</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>23.98</v>
+        <v>16.58</v>
       </c>
       <c r="E3" t="n">
-        <v>21.75</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>18.43</v>
+        <v>13.08</v>
       </c>
       <c r="G3" t="n">
-        <v>19.61</v>
+        <v>18.72</v>
       </c>
       <c r="H3" t="n">
-        <v>14.54</v>
+        <v>19.67</v>
       </c>
       <c r="I3" t="n">
-        <v>18.6</v>
+        <v>19.82</v>
       </c>
       <c r="J3" t="n">
-        <v>15.58</v>
+        <v>20.28</v>
       </c>
       <c r="K3" t="n">
-        <v>14.84</v>
+        <v>21.39</v>
       </c>
       <c r="L3" t="n">
-        <v>17.66</v>
+        <v>19.88</v>
       </c>
       <c r="M3" t="n">
-        <v>19.09</v>
+        <v>24.72</v>
       </c>
       <c r="N3" t="n">
-        <v>14.369</v>
+        <v>17.3106</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8564</v>
+        <v>16.0119</v>
       </c>
       <c r="P3" t="n">
-        <v>15.126</v>
+        <v>18.6082</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.1435</v>
+        <v>16.5776</v>
       </c>
       <c r="R3" t="n">
-        <v>16.2458</v>
+        <v>18.5114</v>
       </c>
       <c r="S3" t="n">
-        <v>16.2889</v>
+        <v>18.8719</v>
       </c>
       <c r="T3" t="n">
-        <v>14.66</v>
+        <v>17.3113</v>
       </c>
       <c r="U3" t="n">
-        <v>14.4942</v>
+        <v>17.0217</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6378</v>
+        <v>19.4832</v>
       </c>
       <c r="W3" t="n">
-        <v>16.5977</v>
+        <v>17.6571</v>
       </c>
       <c r="X3" t="n">
-        <v>14.7435</v>
+        <v>17.9028</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.836</v>
+        <v>23.4548</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.8325</v>
+        <v>15.2596</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.8754</v>
+        <v>12.4981</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.8241</v>
+        <v>17.2396</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.5624</v>
+        <v>16.9082</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.9252</v>
+        <v>19.7965</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.6771</v>
+        <v>18.2961</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.4924</v>
+        <v>20.9171</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.2323</v>
+        <v>20.404</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.9354</v>
+        <v>16.4025</v>
       </c>
       <c r="AI3" t="n">
-        <v>19.9827</v>
+        <v>19.6768</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.3062</v>
+        <v>19.1051</v>
       </c>
       <c r="AK3" t="n">
-        <v>24.7119</v>
+        <v>25.2655</v>
       </c>
       <c r="AL3" t="n">
-        <v>16.167</v>
+        <v>17.8816</v>
       </c>
       <c r="AM3" t="n">
-        <v>16.819</v>
+        <v>16.2843</v>
       </c>
       <c r="AN3" t="n">
-        <v>20.1863</v>
+        <v>21.545</v>
       </c>
       <c r="AO3" t="n">
-        <v>19.8171</v>
+        <v>19.6735</v>
       </c>
       <c r="AP3" t="n">
-        <v>19.7516</v>
+        <v>22.0888</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18.398</v>
+        <v>21.1554</v>
       </c>
       <c r="AR3" t="n">
-        <v>21.0558</v>
+        <v>20.6199</v>
       </c>
       <c r="AS3" t="n">
-        <v>19.9213</v>
+        <v>22.5014</v>
       </c>
       <c r="AT3" t="n">
-        <v>23.7306</v>
+        <v>20.019</v>
       </c>
       <c r="AU3" t="n">
-        <v>23.5096</v>
+        <v>22.0623</v>
       </c>
       <c r="AV3" t="n">
-        <v>26.2248</v>
+        <v>20.0255</v>
       </c>
       <c r="AW3" t="n">
-        <v>33.9178</v>
+        <v>24.4523</v>
       </c>
       <c r="AX3" t="n">
-        <v>25.0641</v>
+        <v>16.0211</v>
       </c>
       <c r="AY3" t="n">
-        <v>27.6804</v>
+        <v>15.0437</v>
       </c>
       <c r="AZ3" t="n">
-        <v>30.8865</v>
+        <v>24.3157</v>
       </c>
       <c r="BA3" t="n">
-        <v>30.4812</v>
+        <v>19.8515</v>
       </c>
       <c r="BB3" t="n">
-        <v>34.7322</v>
+        <v>22.0896</v>
       </c>
       <c r="BC3" t="n">
-        <v>35.214</v>
+        <v>20.7162</v>
       </c>
       <c r="BD3" t="n">
-        <v>35.4235</v>
+        <v>22.5137</v>
       </c>
       <c r="BE3" t="n">
-        <v>35.5236</v>
+        <v>22.7061</v>
       </c>
       <c r="BF3" t="n">
-        <v>35.7119</v>
+        <v>23.2228</v>
       </c>
       <c r="BG3" t="n">
-        <v>33.8408</v>
+        <v>24.9079</v>
       </c>
       <c r="BH3" t="n">
-        <v>38.1384</v>
+        <v>24.4261</v>
       </c>
       <c r="BI3" t="n">
-        <v>62.5644</v>
+        <v>37.4512</v>
       </c>
       <c r="BJ3" t="n">
-        <v>22.9268</v>
+        <v>18.4289</v>
       </c>
       <c r="BK3" t="n">
-        <v>31.6807</v>
+        <v>18.8026</v>
       </c>
       <c r="BL3" t="n">
-        <v>33.9041</v>
+        <v>21.2329</v>
       </c>
       <c r="BM3" t="n">
-        <v>38.8946</v>
+        <v>24.1103</v>
       </c>
       <c r="BN3" t="n">
-        <v>35.844</v>
+        <v>25.3569</v>
       </c>
       <c r="BO3" t="n">
-        <v>36.9596</v>
+        <v>27.5948</v>
       </c>
       <c r="BP3" t="n">
-        <v>34.4401</v>
+        <v>26.7715</v>
       </c>
       <c r="BQ3" t="n">
-        <v>36.559</v>
+        <v>26.9738</v>
       </c>
       <c r="BR3" t="n">
-        <v>34.6949</v>
+        <v>26.6012</v>
       </c>
       <c r="BS3" t="n">
-        <v>34.0114</v>
+        <v>30.1636</v>
       </c>
       <c r="BT3" t="n">
-        <v>36.028</v>
+        <v>27.0009</v>
       </c>
       <c r="BU3" t="n">
-        <v>55.775</v>
+        <v>38.446</v>
       </c>
       <c r="BV3" t="n">
-        <v>20.5798</v>
+        <v>17.5707</v>
       </c>
       <c r="BW3" t="n">
-        <v>29.2039</v>
+        <v>25.174</v>
       </c>
       <c r="BX3" t="n">
-        <v>33.3951</v>
+        <v>30.0368</v>
       </c>
       <c r="BY3" t="n">
+        <v>28.8815</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>30.4398</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>34.2011</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>32.5891</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>32.3742</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>33.8787</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>35.4907</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>38.0968</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>56.6884</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>26.8397</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>27.2696</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>35.3027</v>
       </c>
-      <c r="BZ3" t="n">
-        <v>33.2877</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>34.5773</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>34.3086</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>34.3892</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>37.1027</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>33.8519</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>40.8372</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>67.08580000000001</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>23.5888</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>31.5145</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>40.4342</v>
-      </c>
       <c r="CK3" t="n">
-        <v>43.2014</v>
+        <v>39.9506</v>
       </c>
       <c r="CL3" t="n">
-        <v>43.8731</v>
+        <v>43.9268</v>
       </c>
       <c r="CM3" t="n">
-        <v>39.5476</v>
+        <v>37.2908</v>
       </c>
       <c r="CN3" t="n">
-        <v>44.6791</v>
+        <v>38.5266</v>
       </c>
       <c r="CO3" t="n">
+        <v>40.1655</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>39.8162</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>42.5566</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>39.9774</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>63.7812</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>28.1024</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>29.1502</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>39.3058</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>39.3595</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>44.2761</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>42.2074</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>44.0343</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>48.118</v>
+      </c>
+      <c r="DB3" t="n">
         <v>47.4463</v>
       </c>
-      <c r="CP3" t="n">
-        <v>49.0852</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>46.103</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>55.775</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>87.5312</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>29.1502</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>36.3504</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>49.9718</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>58.0049</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>53.0883</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>53.7868</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>51.7718</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>50.8315</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>44.1955</v>
-      </c>
       <c r="DC3" t="n">
-        <v>46.909</v>
+        <v>46.1299</v>
       </c>
       <c r="DD3" t="n">
-        <v>48.924</v>
+        <v>48.2255</v>
       </c>
       <c r="DE3" t="n">
-        <v>59.8367</v>
+        <v>59.9075</v>
       </c>
       <c r="DF3" t="n">
-        <v>25.6454</v>
+        <v>28.3984</v>
       </c>
       <c r="DG3" t="n">
-        <v>35.2386</v>
+        <v>32.5067</v>
       </c>
       <c r="DH3" t="n">
-        <v>38.7539</v>
+        <v>46.9071</v>
       </c>
       <c r="DI3" t="n">
-        <v>43.0317</v>
+        <v>47.9871</v>
       </c>
       <c r="DJ3" t="n">
-        <v>45.6153</v>
+        <v>49.3425</v>
       </c>
       <c r="DK3" t="n">
-        <v>42.5235</v>
+        <v>51.1849</v>
       </c>
       <c r="DL3" t="n">
-        <v>43.9847</v>
+        <v>51.1849</v>
       </c>
       <c r="DM3" t="n">
-        <v>45.8906</v>
+        <v>55.0602</v>
       </c>
       <c r="DN3" t="n">
-        <v>44.0482</v>
+        <v>50.9519</v>
       </c>
       <c r="DO3" t="n">
-        <v>45.5518</v>
+        <v>58.4909</v>
       </c>
       <c r="DP3" t="n">
-        <v>46.5553</v>
+        <v>55.1923</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.9122</v>
+        <v>81.99769999999999</v>
       </c>
       <c r="DR3" t="n">
-        <v>30.7156</v>
+        <v>39.7733</v>
       </c>
       <c r="DS3" t="n">
-        <v>31.2135</v>
+        <v>40.5967</v>
       </c>
       <c r="DT3" t="n">
-        <v>49.4246</v>
+        <v>53.4268</v>
       </c>
       <c r="DU3" t="n">
-        <v>51.6151</v>
+        <v>51.6531</v>
       </c>
       <c r="DV3" t="n">
-        <v>51.5441</v>
+        <v>57.6601</v>
       </c>
       <c r="DW3" t="n">
-        <v>50.6958</v>
+        <v>57.2709</v>
       </c>
       <c r="DX3" t="n">
-        <v>51.5171</v>
+        <v>62.1791</v>
       </c>
       <c r="DY3" t="n">
-        <v>54.5594</v>
+        <v>63.0679</v>
       </c>
       <c r="DZ3" t="n">
-        <v>54.3035</v>
+        <v>60.482</v>
       </c>
       <c r="EA3" t="n">
-        <v>51.3478</v>
+        <v>60.6061</v>
       </c>
       <c r="EB3" t="n">
-        <v>55.7335</v>
+        <v>64.0658</v>
       </c>
       <c r="EC3" t="n">
-        <v>91.4079</v>
+        <v>92.1284</v>
       </c>
       <c r="ED3" t="n">
-        <v>30.16</v>
+        <v>39.91</v>
       </c>
       <c r="EE3" t="n">
-        <v>48.51</v>
+        <v>49.7</v>
       </c>
       <c r="EF3" t="n">
-        <v>58.93</v>
+        <v>60</v>
       </c>
       <c r="EG3" t="n">
-        <v>60.84</v>
+        <v>63.49</v>
       </c>
       <c r="EH3" t="n">
-        <v>63.58</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="EI3" t="n">
-        <v>68.2</v>
+        <v>76.58</v>
       </c>
       <c r="EJ3" t="n">
-        <v>62.73</v>
+        <v>71.59</v>
       </c>
       <c r="EK3" t="n">
-        <v>63.7</v>
+        <v>76.5</v>
       </c>
       <c r="EL3" t="n">
-        <v>68.42</v>
+        <v>70.64</v>
       </c>
       <c r="EM3" t="n">
-        <v>71.15000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="EN3" t="n">
-        <v>76.34999999999999</v>
+        <v>85.27</v>
       </c>
       <c r="EO3" t="n">
-        <v>133.43</v>
+        <v>113.23</v>
       </c>
       <c r="EP3" t="n">
-        <v>32.04</v>
+        <v>33.57</v>
       </c>
       <c r="EQ3" t="n">
-        <v>64.73</v>
+        <v>58.23</v>
       </c>
       <c r="ER3" t="n">
-        <v>75.81999999999999</v>
+        <v>69.06</v>
       </c>
       <c r="ES3" t="n">
-        <v>74.84</v>
+        <v>68.95</v>
       </c>
       <c r="ET3" t="n">
-        <v>85.09</v>
+        <v>72.13</v>
       </c>
       <c r="EU3" t="n">
-        <v>73.76000000000001</v>
+        <v>69.48</v>
       </c>
       <c r="EV3" t="n">
-        <v>87.63</v>
+        <v>76.27</v>
       </c>
       <c r="EW3" t="n">
-        <v>87.43000000000001</v>
+        <v>76.38</v>
       </c>
       <c r="EX3" t="n">
-        <v>95.68000000000001</v>
+        <v>88.42</v>
       </c>
       <c r="EY3" t="n">
-        <v>86.37</v>
+        <v>80.52</v>
       </c>
       <c r="EZ3" t="n">
-        <v>95.41</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="FA3" t="n">
-        <v>179.669</v>
+        <v>134.864</v>
       </c>
       <c r="FB3" t="n">
-        <v>57.16</v>
+        <v>48.81</v>
       </c>
       <c r="FC3" t="n">
-        <v>59.63</v>
+        <v>57.33</v>
       </c>
       <c r="FD3" t="n">
-        <v>87.25</v>
+        <v>84.88</v>
       </c>
       <c r="FE3" t="n">
-        <v>94.06999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="FF3" t="n">
-        <v>94.68000000000001</v>
+        <v>94.91</v>
       </c>
       <c r="FG3" t="n">
-        <v>98.56999999999999</v>
+        <v>109</v>
       </c>
       <c r="FH3" t="n">
-        <v>96.20999999999999</v>
+        <v>103.46</v>
       </c>
       <c r="FI3" t="n">
-        <v>100.35</v>
+        <v>101.1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>92.14</v>
+        <v>104.36</v>
       </c>
       <c r="FK3" t="n">
-        <v>94.08</v>
+        <v>104.3</v>
       </c>
       <c r="FL3" t="n">
-        <v>103.07</v>
+        <v>125.69</v>
       </c>
       <c r="FM3" t="n">
-        <v>179.16</v>
+        <v>185.08</v>
       </c>
       <c r="FN3" t="n">
-        <v>65</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="FO3" t="n">
-        <v>71.23</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="FP3" t="n">
-        <v>102.41</v>
+        <v>128.8</v>
       </c>
       <c r="FQ3" t="n">
-        <v>102.78</v>
+        <v>119.91</v>
       </c>
       <c r="FR3" t="n">
-        <v>114.93</v>
+        <v>128.17</v>
       </c>
       <c r="FS3" t="n">
-        <v>109.55</v>
+        <v>140.37</v>
       </c>
       <c r="FT3" t="n">
-        <v>111.26</v>
+        <v>122.68</v>
       </c>
       <c r="FU3" t="n">
-        <v>115.8</v>
+        <v>125.2</v>
       </c>
       <c r="FV3" t="n">
-        <v>112.92</v>
+        <v>124.31</v>
       </c>
       <c r="FW3" t="n">
-        <v>109.71</v>
+        <v>123.44</v>
       </c>
       <c r="FX3" t="n">
-        <v>120.46</v>
+        <v>121.79</v>
       </c>
       <c r="FY3" t="n">
-        <v>184.74</v>
+        <v>172.44</v>
       </c>
       <c r="FZ3" t="n">
-        <v>101.32</v>
+        <v>91.75</v>
       </c>
       <c r="GA3" t="n">
-        <v>81.37</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="GB3" t="n">
-        <v>111.35</v>
+        <v>104.07</v>
       </c>
       <c r="GC3" t="n">
-        <v>109.26</v>
+        <v>113.82</v>
       </c>
       <c r="GD3" t="n">
-        <v>120.09</v>
+        <v>121.55</v>
       </c>
       <c r="GE3" t="n">
-        <v>109.08</v>
+        <v>122.66</v>
       </c>
       <c r="GF3" t="n">
-        <v>113.04</v>
+        <v>124.26</v>
       </c>
       <c r="GG3" t="n">
-        <v>111.39</v>
+        <v>141.34</v>
       </c>
       <c r="GH3" t="n">
-        <v>102.94</v>
+        <v>134.19</v>
       </c>
       <c r="GI3" t="n">
-        <v>113.09</v>
+        <v>152.19</v>
       </c>
       <c r="GJ3" t="n">
-        <v>116.22</v>
+        <v>136.21</v>
       </c>
       <c r="GK3" t="n">
-        <v>200.28</v>
+        <v>183.26</v>
       </c>
       <c r="GL3" t="n">
-        <v>99.77</v>
+        <v>116.92</v>
       </c>
       <c r="GM3" t="n">
-        <v>77.29000000000001</v>
+        <v>98.47</v>
       </c>
       <c r="GN3" t="n">
-        <v>110.98</v>
+        <v>140.46</v>
       </c>
       <c r="GO3" t="n">
-        <v>112.2</v>
+        <v>147.95</v>
       </c>
       <c r="GP3" t="n">
-        <v>115.58</v>
+        <v>151.92</v>
       </c>
       <c r="GQ3" t="n">
-        <v>112.2</v>
+        <v>153.73</v>
       </c>
       <c r="GR3" t="n">
-        <v>128.2</v>
+        <v>155.83</v>
       </c>
       <c r="GS3" t="n">
-        <v>110.7</v>
+        <v>160.27</v>
       </c>
       <c r="GT3" t="n">
-        <v>114.8</v>
+        <v>165.63</v>
       </c>
       <c r="GU3" t="n">
-        <v>128.42</v>
+        <v>178.17</v>
       </c>
       <c r="GV3" t="n">
-        <v>120.97</v>
+        <v>167.52</v>
       </c>
       <c r="GW3" t="n">
-        <v>190.78</v>
+        <v>191.9</v>
       </c>
       <c r="GX3" t="n">
-        <v>86.95</v>
+        <v>126.76</v>
       </c>
       <c r="GY3" t="n">
-        <v>89.93000000000001</v>
+        <v>121.58</v>
       </c>
       <c r="GZ3" t="n">
-        <v>117.65</v>
+        <v>152.38</v>
       </c>
       <c r="HA3" t="n">
-        <v>116.86</v>
+        <v>159.52</v>
       </c>
       <c r="HB3" t="n">
-        <v>112.91</v>
+        <v>149.27</v>
       </c>
       <c r="HC3" t="n">
-        <v>118.57</v>
+        <v>156.09</v>
       </c>
       <c r="HD3" t="n">
-        <v>119.64</v>
+        <v>161.57</v>
       </c>
       <c r="HE3" t="n">
-        <v>108.79</v>
+        <v>155.57</v>
       </c>
       <c r="HF3" t="n">
-        <v>115.43</v>
+        <v>154.76</v>
       </c>
       <c r="HG3" t="n">
-        <v>116.53</v>
+        <v>147.3</v>
       </c>
       <c r="HH3" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="HI3" t="n">
-        <v>176.79</v>
+        <v>200.09</v>
       </c>
       <c r="HJ3" t="n">
-        <v>98.90000000000001</v>
+        <v>113.7</v>
       </c>
       <c r="HK3" t="n">
-        <v>87.09999999999999</v>
+        <v>109.9</v>
       </c>
       <c r="HL3" t="n">
-        <v>143.7</v>
+        <v>148.1</v>
       </c>
       <c r="HM3" t="n">
-        <v>138.2</v>
+        <v>147.8</v>
       </c>
       <c r="HN3" t="n">
-        <v>136.5</v>
+        <v>155.2</v>
       </c>
       <c r="HO3" t="n">
-        <v>145.2</v>
+        <v>153.1</v>
       </c>
       <c r="HP3" t="n">
-        <v>139.21</v>
+        <v>173.2</v>
       </c>
       <c r="HQ3" t="n">
-        <v>134.4</v>
+        <v>183.2</v>
       </c>
       <c r="HR3" t="n">
-        <v>152.68</v>
+        <v>185.7</v>
       </c>
       <c r="HS3" t="n">
-        <v>137.94</v>
+        <v>182.33</v>
       </c>
       <c r="HT3" t="n">
-        <v>169.09</v>
+        <v>194.77</v>
       </c>
       <c r="HU3" t="n">
-        <v>174.2</v>
+        <v>202.4</v>
       </c>
       <c r="HV3" t="n">
-        <v>152.6</v>
+        <v>168</v>
       </c>
       <c r="HW3" t="n">
-        <v>134.3</v>
+        <v>147.8</v>
       </c>
       <c r="HX3" t="n">
-        <v>178.1</v>
+        <v>201.5</v>
       </c>
       <c r="HY3" t="n">
-        <v>183.6</v>
+        <v>205</v>
       </c>
       <c r="HZ3" t="n">
-        <v>169.7</v>
+        <v>201</v>
       </c>
       <c r="IA3" t="n">
-        <v>203</v>
+        <v>221.9</v>
       </c>
       <c r="IB3" t="n">
-        <v>194.9</v>
+        <v>214.8</v>
       </c>
       <c r="IC3" t="n">
-        <v>207.9</v>
+        <v>233.3</v>
       </c>
       <c r="ID3" t="n">
-        <v>207.2</v>
+        <v>229.7</v>
       </c>
       <c r="IE3" t="n">
-        <v>189.2</v>
+        <v>228</v>
       </c>
       <c r="IF3" t="n">
-        <v>216.4</v>
+        <v>221.6</v>
       </c>
       <c r="IG3" t="n">
-        <v>214.1</v>
+        <v>219.9</v>
       </c>
       <c r="IH3" t="n">
-        <v>155.5</v>
+        <v>169.3</v>
       </c>
       <c r="II3" t="n">
-        <v>182.3</v>
+        <v>192</v>
       </c>
       <c r="IJ3" t="n">
-        <v>207.7</v>
+        <v>231.4</v>
       </c>
       <c r="IK3" t="n">
-        <v>218.6</v>
+        <v>227.9</v>
       </c>
       <c r="IL3" t="n">
-        <v>188.1</v>
+        <v>208.1</v>
       </c>
       <c r="IM3" t="n">
-        <v>212.5</v>
+        <v>220.8</v>
       </c>
       <c r="IN3" t="n">
-        <v>209.6</v>
+        <v>228.9</v>
       </c>
       <c r="IO3" t="n">
-        <v>221.6</v>
+        <v>235.4</v>
       </c>
       <c r="IP3" t="n">
-        <v>218.5</v>
+        <v>239.9</v>
       </c>
       <c r="IQ3" t="n">
-        <v>189</v>
+        <v>227.9</v>
       </c>
       <c r="IR3" t="n">
-        <v>208.5</v>
+        <v>240</v>
       </c>
       <c r="IS3" t="n">
-        <v>223.9</v>
+        <v>245</v>
       </c>
       <c r="IT3" t="n">
-        <v>189.8</v>
+        <v>217</v>
       </c>
       <c r="IU3" t="n">
-        <v>159.1</v>
+        <v>191.3</v>
       </c>
       <c r="IV3" t="n">
-        <v>224.8</v>
+        <v>237.9</v>
       </c>
       <c r="IW3" t="n">
-        <v>257.5</v>
+        <v>267.2</v>
       </c>
       <c r="IX3" t="n">
-        <v>224.3</v>
+        <v>246.4</v>
       </c>
       <c r="IY3" t="n">
-        <v>230.96</v>
+        <v>260.2</v>
       </c>
       <c r="IZ3" t="n">
-        <v>269.9</v>
+        <v>292.1</v>
       </c>
       <c r="JA3" t="n">
-        <v>272.05</v>
+        <v>294.37</v>
       </c>
       <c r="JB3" t="n">
-        <v>297.9</v>
+        <v>319.1</v>
       </c>
       <c r="JC3" t="n">
-        <v>252</v>
+        <v>299.5</v>
       </c>
       <c r="JD3" t="n">
-        <v>287.4</v>
+        <v>312.1</v>
       </c>
       <c r="JE3" t="n">
-        <v>287.33</v>
+        <v>318.89</v>
       </c>
       <c r="JF3" t="n">
-        <v>310.12</v>
+        <v>297.54</v>
       </c>
       <c r="JG3" t="n">
-        <v>237.51</v>
+        <v>244.5</v>
       </c>
       <c r="JH3" t="n">
-        <v>324.92</v>
+        <v>320.83</v>
       </c>
       <c r="JI3" t="n">
-        <v>345.65</v>
+        <v>355.89</v>
       </c>
       <c r="JJ3" t="n">
-        <v>315.79</v>
+        <v>337.86</v>
       </c>
       <c r="JK3" t="n">
-        <v>323.29</v>
+        <v>344.63</v>
       </c>
       <c r="JL3" t="n">
-        <v>364.96</v>
+        <v>380.88</v>
       </c>
       <c r="JM3" t="n">
-        <v>345.98</v>
+        <v>373.95</v>
       </c>
       <c r="JN3" t="n">
-        <v>416.24</v>
+        <v>419.21</v>
       </c>
       <c r="JO3" t="n">
-        <v>351.5</v>
+        <v>408.93</v>
       </c>
       <c r="JP3" t="n">
-        <v>368.55</v>
+        <v>417.49</v>
       </c>
       <c r="JQ3" t="n">
-        <v>423.09</v>
+        <v>480.58</v>
       </c>
       <c r="JR3" t="n">
-        <v>357.14</v>
+        <v>357.1</v>
       </c>
       <c r="JS3" t="n">
-        <v>420.19</v>
+        <v>340.48</v>
       </c>
       <c r="JT3" t="n">
-        <v>464.79</v>
+        <v>458.45</v>
       </c>
       <c r="JU3" t="n">
-        <v>495.29</v>
+        <v>471.09</v>
       </c>
       <c r="JV3" t="n">
-        <v>429.84</v>
+        <v>448.44</v>
       </c>
       <c r="JW3" t="n">
-        <v>488.93</v>
+        <v>505.18</v>
       </c>
       <c r="JX3" t="n">
-        <v>489.8</v>
+        <v>509.53</v>
       </c>
       <c r="JY3" t="n">
-        <v>468.21</v>
+        <v>513.45</v>
       </c>
       <c r="JZ3" t="n">
-        <v>507.19</v>
+        <v>557.54</v>
       </c>
       <c r="KA3" t="n">
-        <v>454.4</v>
+        <v>525.1</v>
       </c>
       <c r="KB3" t="n">
-        <v>509.7</v>
+        <v>609</v>
       </c>
       <c r="KC3" t="n">
-        <v>526.8</v>
+        <v>637.9</v>
       </c>
       <c r="KD3" t="n">
-        <v>442.55</v>
+        <v>507.27</v>
       </c>
       <c r="KE3" t="n">
-        <v>399.01</v>
+        <v>442.76</v>
       </c>
       <c r="KF3" t="n">
-        <v>552.09</v>
+        <v>608.45</v>
       </c>
       <c r="KG3" t="n">
-        <v>576.5599999999999</v>
+        <v>620.84</v>
       </c>
       <c r="KH3" t="n">
-        <v>493.97</v>
+        <v>584.22</v>
       </c>
       <c r="KI3" t="n">
-        <v>562.05</v>
+        <v>659.3</v>
       </c>
       <c r="KJ3" t="n">
-        <v>548.97</v>
+        <v>655.3200000000001</v>
       </c>
       <c r="KK3" t="n">
-        <v>577.77</v>
+        <v>683.72</v>
       </c>
       <c r="KL3" t="n">
-        <v>625.71</v>
+        <v>701.48</v>
       </c>
       <c r="KM3" t="n">
-        <v>560.46</v>
+        <v>680.25</v>
       </c>
       <c r="KN3" t="n">
-        <v>616.6</v>
+        <v>721.95</v>
       </c>
       <c r="KO3" t="n">
-        <v>643.79</v>
+        <v>753.97</v>
       </c>
       <c r="KP3" t="n">
-        <v>554.9299999999999</v>
+        <v>651.26</v>
       </c>
       <c r="KQ3" t="n">
-        <v>515.79</v>
+        <v>541.0599999999999</v>
       </c>
       <c r="KR3" t="n">
-        <v>668.7</v>
+        <v>780.1900000000001</v>
       </c>
       <c r="KS3" t="n">
-        <v>664.5</v>
+        <v>768.28</v>
       </c>
       <c r="KT3" t="n">
-        <v>601.26</v>
+        <v>730.72</v>
       </c>
       <c r="KU3" t="n">
-        <v>668.63</v>
+        <v>812.8099999999999</v>
       </c>
       <c r="KV3" t="n">
-        <v>657.24</v>
+        <v>802.97</v>
       </c>
       <c r="KW3" t="n">
-        <v>719.1799999999999</v>
+        <v>907.26</v>
       </c>
       <c r="KX3" t="n">
-        <v>762.63</v>
+        <v>915.76</v>
       </c>
       <c r="KY3" t="n">
-        <v>642.71</v>
+        <v>880.97</v>
       </c>
       <c r="KZ3" t="n">
-        <v>729.03</v>
+        <v>958.0700000000001</v>
       </c>
       <c r="LA3" t="n">
-        <v>730</v>
+        <v>940</v>
       </c>
       <c r="LB3" t="n">
-        <v>707.26</v>
+        <v>865.9400000000001</v>
       </c>
       <c r="LC3" t="n">
-        <v>583.58</v>
+        <v>821.49</v>
       </c>
       <c r="LD3" t="n">
-        <v>766.86</v>
+        <v>835.76</v>
       </c>
       <c r="LE3" t="n">
-        <v>807.6</v>
+        <v>974.9400000000001</v>
       </c>
       <c r="LF3" t="n">
-        <v>716.4400000000001</v>
+        <v>940.74</v>
       </c>
       <c r="LG3" t="n">
-        <v>764.6900000000001</v>
+        <v>1033.94</v>
       </c>
       <c r="LH3" t="n">
-        <v>833.47</v>
+        <v>1078.3</v>
       </c>
       <c r="LI3" t="n">
-        <v>862.24</v>
+        <v>1114.24</v>
       </c>
       <c r="LJ3" t="n">
-        <v>882.63</v>
+        <v>1123.51</v>
       </c>
       <c r="LK3" t="n">
-        <v>805.47</v>
+        <v>1077.45</v>
       </c>
       <c r="LL3" t="n">
-        <v>912.03</v>
+        <v>1175.92</v>
       </c>
       <c r="LM3" t="n">
-        <v>917.23</v>
+        <v>1144.12</v>
       </c>
       <c r="LN3" t="n">
-        <v>902.8099999999999</v>
+        <v>1097.56</v>
       </c>
       <c r="LO3" t="n">
-        <v>791.46</v>
+        <v>873.61</v>
       </c>
       <c r="LP3" t="n">
-        <v>958.65</v>
+        <v>1089.98</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1023.94</v>
+        <v>1190.05</v>
       </c>
       <c r="LR3" t="n">
-        <v>1007.81</v>
+        <v>1206.99</v>
       </c>
       <c r="LS3" t="n">
-        <v>1004.46</v>
+        <v>1213.2</v>
       </c>
       <c r="LT3" t="n">
-        <v>1114.12</v>
+        <v>1368.37</v>
       </c>
       <c r="LU3" t="n">
-        <v>1059.99</v>
+        <v>1353.87</v>
       </c>
       <c r="LV3" t="n">
-        <v>1067.92</v>
+        <v>1367.59</v>
       </c>
       <c r="LW3" t="n">
-        <v>927.48</v>
+        <v>1285.32</v>
       </c>
       <c r="LX3" t="n">
-        <v>746.5700000000001</v>
+        <v>1149.85</v>
       </c>
       <c r="LY3" t="n">
-        <v>720.46</v>
+        <v>1110.55</v>
       </c>
       <c r="LZ3" t="n">
-        <v>513.72</v>
+        <v>904.85</v>
       </c>
       <c r="MA3" t="n">
-        <v>600.59</v>
+        <v>648.66</v>
       </c>
       <c r="MB3" t="n">
-        <v>718.51</v>
+        <v>902.1900000000001</v>
       </c>
       <c r="MC3" t="n">
-        <v>789.83</v>
+        <v>919.23</v>
       </c>
       <c r="MD3" t="n">
-        <v>756.65</v>
+        <v>886.99</v>
       </c>
       <c r="ME3" t="n">
-        <v>875.11</v>
+        <v>954.58</v>
       </c>
       <c r="MF3" t="n">
-        <v>951.51</v>
+        <v>1053.91</v>
       </c>
       <c r="MG3" t="n">
-        <v>882.4299999999999</v>
+        <v>1036.63</v>
       </c>
       <c r="MH3" t="n">
-        <v>1031.99</v>
+        <v>1158.65</v>
       </c>
       <c r="MI3" t="n">
-        <v>868.48</v>
+        <v>1106.42</v>
       </c>
       <c r="MJ3" t="n">
-        <v>946.91</v>
+        <v>1136.59</v>
       </c>
       <c r="MK3" t="n">
-        <v>1123.49</v>
+        <v>1307.4</v>
       </c>
       <c r="ML3" t="n">
-        <v>955.3</v>
+        <v>1094.9</v>
       </c>
       <c r="MM3" t="n">
-        <v>871.26</v>
+        <v>944.63</v>
       </c>
       <c r="MN3" t="n">
-        <v>1194.67</v>
+        <v>1120.59</v>
       </c>
       <c r="MO3" t="n">
-        <v>1184.41</v>
+        <v>1198.51</v>
       </c>
       <c r="MP3" t="n">
-        <v>1122.12</v>
+        <v>1316.61</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1171.53</v>
+        <v>1373.39</v>
       </c>
       <c r="MR3" t="n">
-        <v>1168.9</v>
+        <v>1454.34</v>
       </c>
       <c r="MS3" t="n">
-        <v>1194.8</v>
+        <v>1392.36</v>
       </c>
       <c r="MT3" t="n">
-        <v>1283.6</v>
+        <v>1449.23</v>
       </c>
       <c r="MU3" t="n">
-        <v>1091.11</v>
+        <v>1359.17</v>
       </c>
       <c r="MV3" t="n">
-        <v>1309.85</v>
+        <v>1532.79</v>
       </c>
       <c r="MW3" t="n">
-        <v>1414.93</v>
+        <v>1541.01</v>
       </c>
       <c r="MX3" t="n">
-        <v>1449.15</v>
+        <v>1506.97</v>
       </c>
       <c r="MY3" t="n">
-        <v>1045.54</v>
+        <v>966.8099999999999</v>
       </c>
       <c r="MZ3" t="n">
-        <v>1523.24</v>
+        <v>1521.34</v>
       </c>
       <c r="NA3" t="n">
-        <v>1443.7</v>
+        <v>1555.92</v>
       </c>
       <c r="NB3" t="n">
-        <v>1441.22</v>
+        <v>1570.51</v>
       </c>
       <c r="NC3" t="n">
-        <v>1397.02</v>
+        <v>1618.95</v>
       </c>
       <c r="ND3" t="n">
-        <v>1450.15</v>
+        <v>1751.51</v>
       </c>
       <c r="NE3" t="n">
-        <v>1553.84</v>
+        <v>1732.39</v>
       </c>
       <c r="NF3" t="n">
-        <v>1549.94</v>
+        <v>1695.8</v>
       </c>
       <c r="NG3" t="n">
-        <v>1402.18</v>
+        <v>1573.52</v>
       </c>
       <c r="NH3" t="n">
-        <v>1597.22</v>
+        <v>1743.86</v>
       </c>
       <c r="NI3" t="n">
-        <v>1581.63</v>
+        <v>1746.23</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1228.48</v>
+        <v>1498.61</v>
       </c>
       <c r="NK3" t="n">
-        <v>1464.11</v>
+        <v>1144.09</v>
       </c>
       <c r="NL3" t="n">
-        <v>1603.94</v>
+        <v>1655.77</v>
       </c>
       <c r="NM3" t="n">
-        <v>1445.73</v>
+        <v>1631.29</v>
       </c>
       <c r="NN3" t="n">
-        <v>1628.49</v>
+        <v>1810.34</v>
       </c>
       <c r="NO3" t="n">
-        <v>1481.82</v>
+        <v>1798.31</v>
       </c>
       <c r="NP3" t="n">
-        <v>1516.17</v>
+        <v>1769.18</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1514.51</v>
+        <v>1778.7</v>
       </c>
       <c r="NR3" t="n">
-        <v>1586.52</v>
+        <v>1861.16</v>
       </c>
       <c r="NS3" t="n">
-        <v>1434.46</v>
+        <v>1755.16</v>
       </c>
       <c r="NT3" t="n">
-        <v>1598.6</v>
+        <v>1793.41</v>
       </c>
       <c r="NU3" t="n">
-        <v>1681.22</v>
+        <v>1991.12</v>
       </c>
       <c r="NV3" t="n">
-        <v>1591.98268664</v>
+        <v>1872.87692325</v>
       </c>
       <c r="NW3" t="n">
-        <v>1244.21634524</v>
+        <v>1393.0415085</v>
       </c>
       <c r="NX3" t="n">
-        <v>1830.0822615</v>
+        <v>1821.01791541</v>
       </c>
       <c r="NY3" t="n">
-        <v>1685.69052216</v>
+        <v>1869.30905182</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1620.20918681</v>
+        <v>1826.79518593</v>
       </c>
       <c r="OA3" t="n">
-        <v>1469.67908342</v>
+        <v>1742.35030598</v>
       </c>
       <c r="OB3" t="n">
-        <v>1681.57102125</v>
+        <v>1859.15008193</v>
       </c>
       <c r="OC3" t="n">
-        <v>1623.59301982</v>
+        <v>1904.92544673</v>
       </c>
       <c r="OD3" t="n">
-        <v>1705.5983485</v>
+        <v>1853.13292343</v>
       </c>
       <c r="OE3" t="n">
-        <v>1542.58769155</v>
+        <v>1852.93758314</v>
       </c>
       <c r="OF3" t="n">
-        <v>1683.29629372</v>
+        <v>2020.82966799</v>
       </c>
       <c r="OG3" t="n">
-        <v>1821.38822205</v>
+        <v>2073.67339394</v>
       </c>
       <c r="OH3" t="n">
-        <v>1750.14288271</v>
+        <v>2070.36945706</v>
       </c>
       <c r="OI3" t="n">
-        <v>1366.214506</v>
+        <v>1140.5247708</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1620.1697264</v>
+        <v>1700.01624933</v>
       </c>
       <c r="OK3" t="n">
-        <v>1697.85916707</v>
+        <v>1884.49581169</v>
       </c>
       <c r="OL3" t="n">
-        <v>1593.57003386</v>
+        <v>1955.96391322</v>
       </c>
       <c r="OM3" t="n">
-        <v>1548.62311718</v>
+        <v>1867.56479308</v>
       </c>
       <c r="ON3" t="n">
-        <v>1653.91131933</v>
+        <v>2127.44123506</v>
       </c>
       <c r="OO3" t="n">
-        <v>1584.53429079</v>
+        <v>2083.29554033</v>
       </c>
       <c r="OP3" t="n">
-        <v>1823.48349511</v>
+        <v>2135.61657335</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1610.71796252</v>
+        <v>2067.71186062</v>
       </c>
       <c r="OR3" t="n">
-        <v>1567.98490572</v>
+        <v>2115.63050032</v>
       </c>
       <c r="OS3" t="n">
-        <v>1775.13507741</v>
+        <v>2274.29625834</v>
       </c>
       <c r="OT3" t="n">
-        <v>1405.6146718</v>
+        <v>1998.76251468</v>
       </c>
       <c r="OU3" t="n">
-        <v>1084.84585885</v>
+        <v>1689.46683718</v>
       </c>
       <c r="OV3" t="n">
-        <v>1417.18895315</v>
+        <v>1442.34930544</v>
       </c>
       <c r="OW3" t="n">
-        <v>1427.00812542</v>
+        <v>1759.02340856</v>
       </c>
       <c r="OX3" t="n">
-        <v>1316.45543462</v>
+        <v>1888.00118125</v>
       </c>
       <c r="OY3" t="n">
-        <v>1443.46523884</v>
+        <v>1895.44674638</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1512.91615383</v>
+        <v>1931.61132466</v>
       </c>
       <c r="PA3" t="n">
-        <v>1364.73211627</v>
+        <v>1961.61405324</v>
       </c>
       <c r="PB3" t="n">
-        <v>1453.17047184</v>
+        <v>2049.22588004</v>
       </c>
       <c r="PC3" t="n">
-        <v>1309.02793213</v>
+        <v>1921.89023026</v>
       </c>
       <c r="PD3" t="n">
-        <v>1426.16476212</v>
+        <v>1965.92966171</v>
       </c>
       <c r="PE3" t="n">
-        <v>1635.055257</v>
+        <v>2231.36109852</v>
       </c>
       <c r="PF3" t="n">
-        <v>1125.4694099</v>
+        <v>1693.98917901</v>
       </c>
       <c r="PG3" t="n">
-        <v>935.58094839</v>
+        <v>1217.07158577</v>
       </c>
       <c r="PH3" t="n">
-        <v>1301.87765536</v>
+        <v>1550.98178215</v>
       </c>
       <c r="PI3" t="n">
-        <v>1268.29152831</v>
+        <v>1666.88631697</v>
       </c>
       <c r="PJ3" t="n">
-        <v>1308.6744272</v>
+        <v>1757.10064909</v>
       </c>
       <c r="PK3" t="n">
-        <v>1312.62338512</v>
+        <v>1766.04575996</v>
       </c>
       <c r="PL3" t="n">
-        <v>1323.12139465</v>
+        <v>1806.59215382</v>
       </c>
       <c r="PM3" t="n">
-        <v>1387.34071936</v>
+        <v>1888.30688437</v>
       </c>
       <c r="PN3" t="n">
-        <v>1430.0978698</v>
+        <v>1834.39990079</v>
       </c>
       <c r="PO3" t="n">
-        <v>1286.71274456</v>
+        <v>1768.36414355</v>
       </c>
       <c r="PP3" t="n">
-        <v>1504.76795399</v>
+        <v>1935.60726563</v>
       </c>
       <c r="PQ3" t="n">
-        <v>1694.70415318</v>
+        <v>2090.96630682</v>
       </c>
       <c r="PR3" t="n">
-        <v>1315.96044694</v>
+        <v>1802.73315341</v>
       </c>
       <c r="PS3" t="n">
-        <v>1297.86519964</v>
+        <v>1188.47637378</v>
       </c>
       <c r="PT3" t="n">
-        <v>1565.4116533</v>
+        <v>1792.47867518</v>
       </c>
       <c r="PU3" t="n">
-        <v>1412.51332269</v>
+        <v>1777.63392504</v>
       </c>
       <c r="PV3" t="n">
-        <v>1491.65544164</v>
+        <v>1890.88364555</v>
       </c>
       <c r="PW3" t="n">
-        <v>1535.37054713</v>
+        <v>1947.54558958</v>
       </c>
       <c r="PX3" t="n">
-        <v>1472.69303235</v>
+        <v>1921.19127804</v>
       </c>
       <c r="PY3" t="n">
-        <v>1579.96656926</v>
+        <v>1980.42702181</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1705.67178433</v>
+        <v>1979.43516418</v>
       </c>
       <c r="QA3" t="n">
-        <v>1510.04289221</v>
+        <v>1879.03059471</v>
       </c>
       <c r="QB3" t="n">
-        <v>1774.05466745</v>
+        <v>2158.38590872</v>
       </c>
       <c r="QC3" t="n">
-        <v>1776.72385075</v>
+        <v>2315.22791081</v>
       </c>
       <c r="QD3" t="n">
-        <v>1811.50519062</v>
+        <v>1994.69129929</v>
       </c>
       <c r="QE3" t="n">
-        <v>1383.44938942</v>
+        <v>1705.48504352</v>
       </c>
       <c r="QF3" t="n">
-        <v>1796.94418232</v>
+        <v>1739.00288781</v>
       </c>
       <c r="QG3" t="n">
-        <v>1727.19133877</v>
+        <v>1989.36286966</v>
       </c>
       <c r="QH3" t="n">
-        <v>1881.77306453</v>
+        <v>2115.91897826</v>
       </c>
       <c r="QI3" t="n">
-        <v>1746.9062215</v>
+        <v>2155.96364094</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1869.14254314</v>
+        <v>2144.02541259</v>
       </c>
       <c r="QK3" t="n">
-        <v>1906.52058461</v>
+        <v>2169.49116349</v>
       </c>
       <c r="QL3" t="n">
-        <v>1951.34438339</v>
+        <v>2253.9769572</v>
       </c>
       <c r="QM3" t="n">
-        <v>1817.8563178</v>
+        <v>2147.59383426</v>
       </c>
       <c r="QN3" t="n">
-        <v>1824.34980776</v>
+        <v>2242.94203876</v>
       </c>
       <c r="QO3" t="n">
-        <v>1640.50118866</v>
+        <v>2208.50296842</v>
       </c>
       <c r="QP3" t="n">
-        <v>1796.69676051</v>
+        <v>2180.08133531</v>
       </c>
       <c r="QQ3" t="n">
-        <v>1323.71034718</v>
+        <v>1353.3017003</v>
       </c>
       <c r="QR3" t="n">
-        <v>1668.67490021</v>
+        <v>1982.3443559</v>
       </c>
       <c r="QS3" t="n">
-        <v>1805.31894961</v>
+        <v>1936.0631573</v>
       </c>
       <c r="QT3" t="n">
-        <v>1727.73252866</v>
+        <v>2139.17758058</v>
       </c>
       <c r="QU3" t="n">
-        <v>1628.16660882</v>
+        <v>2124.65709908</v>
       </c>
       <c r="QV3" t="n">
-        <v>1777.57872098</v>
+        <v>2217.72397536</v>
       </c>
       <c r="QW3" t="n">
-        <v>1801.57156926</v>
+        <v>2148.73286812</v>
       </c>
       <c r="QX3" t="n">
-        <v>1791.3652218</v>
+        <v>2182.1487434</v>
       </c>
       <c r="QY3" t="n">
-        <v>1706.70619616</v>
+        <v>2129.78599493</v>
       </c>
       <c r="QZ3" t="n">
-        <v>1842.66453825</v>
+        <v>2214.42324956</v>
       </c>
       <c r="RA3" t="n">
-        <v>1913.90349052</v>
+        <v>2386.38083204</v>
       </c>
       <c r="RB3" t="n">
-        <v>1569.11111628</v>
+        <v>2115.96942635</v>
       </c>
       <c r="RC3" t="n">
-        <v>1423.72636697</v>
+        <v>803.79232341</v>
       </c>
       <c r="RD3" t="n">
-        <v>1646.07563026</v>
+        <v>1845.70796647</v>
       </c>
       <c r="RE3" t="n">
-        <v>1545.18350053</v>
+        <v>1994.82286275</v>
       </c>
       <c r="RF3" t="n">
-        <v>1445.12201891</v>
+        <v>2064.30762282</v>
       </c>
       <c r="RG3" t="n">
-        <v>1680.54548274</v>
+        <v>2128.48809831</v>
       </c>
       <c r="RH3" t="n">
-        <v>1763.7147824</v>
+        <v>2368.43989753</v>
       </c>
       <c r="RI3" t="n">
-        <v>1771.17046694</v>
+        <v>2343.6472796</v>
       </c>
       <c r="RJ3" t="n">
-        <v>2030.34802877</v>
+        <v>2386.18870896</v>
       </c>
       <c r="RK3" t="n">
-        <v>1787.33144609</v>
+        <v>2362.63966298</v>
       </c>
       <c r="RL3" t="n">
-        <v>1921.50948106</v>
+        <v>2669.33854847</v>
       </c>
       <c r="RM3" t="n">
-        <v>2048.41614378</v>
+        <v>2818.32487931</v>
       </c>
       <c r="RN3" t="n">
-        <v>1997.06480308</v>
+        <v>2636.33068318</v>
       </c>
       <c r="RO3" t="n">
-        <v>1674.88297689</v>
+        <v>2046.37589063</v>
       </c>
       <c r="RP3" t="n">
-        <v>2275.31469147</v>
+        <v>2407.43007147</v>
       </c>
       <c r="RQ3" t="n">
-        <v>2210.63586996</v>
+        <v>2634.60475287</v>
       </c>
       <c r="RR3" t="n">
-        <v>2183.82768902</v>
+        <v>2636.15097181</v>
       </c>
       <c r="RS3" t="n">
-        <v>2300.72817777</v>
+        <v>2810.20999623</v>
       </c>
       <c r="RT3" t="n">
-        <v>2262.14720162</v>
+        <v>2822.70678909</v>
       </c>
       <c r="RU3" t="n">
-        <v>2359.84247734</v>
+        <v>2939.82100787</v>
       </c>
       <c r="RV3" t="n">
-        <v>2388.4746352</v>
+        <v>3052.8342732</v>
       </c>
       <c r="RW3" t="n">
-        <v>2538.13880995</v>
+        <v>3248.1035406</v>
       </c>
       <c r="RX3" t="n">
-        <v>2460.1772312</v>
+        <v>3404.31026713</v>
       </c>
       <c r="RY3" t="n">
-        <v>2419.14339891</v>
+        <v>3273.03346317</v>
       </c>
       <c r="RZ3" t="n">
-        <v>1868.3286345</v>
+        <v>2175.3325505</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>2760.84612653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Balance</t>
+          <t>Import</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-223</v>
+        <v>18.16</v>
       </c>
       <c r="C4" t="n">
-        <v>-490</v>
+        <v>17.9</v>
       </c>
       <c r="D4" t="n">
-        <v>-740</v>
+        <v>23.98</v>
       </c>
       <c r="E4" t="n">
-        <v>-475</v>
+        <v>21.75</v>
       </c>
       <c r="F4" t="n">
-        <v>-535</v>
+        <v>18.43</v>
       </c>
       <c r="G4" t="n">
-        <v>-89</v>
+        <v>19.61</v>
       </c>
       <c r="H4" t="n">
-        <v>513</v>
+        <v>14.54</v>
       </c>
       <c r="I4" t="n">
-        <v>122</v>
+        <v>18.6</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>15.58</v>
       </c>
       <c r="K4" t="n">
-        <v>655</v>
+        <v>14.84</v>
       </c>
       <c r="L4" t="n">
-        <v>222</v>
+        <v>17.66</v>
       </c>
       <c r="M4" t="n">
-        <v>563</v>
+        <v>19.09</v>
       </c>
       <c r="N4" t="n">
-        <v>294.16</v>
+        <v>14.369</v>
       </c>
       <c r="O4" t="n">
-        <v>115.55</v>
+        <v>14.8564</v>
       </c>
       <c r="P4" t="n">
-        <v>348.22</v>
+        <v>15.126</v>
       </c>
       <c r="Q4" t="n">
-        <v>-156.59</v>
+        <v>18.1435</v>
       </c>
       <c r="R4" t="n">
-        <v>226.56</v>
+        <v>16.2458</v>
       </c>
       <c r="S4" t="n">
-        <v>258.3</v>
+        <v>16.2889</v>
       </c>
       <c r="T4" t="n">
-        <v>265.13</v>
+        <v>14.66</v>
       </c>
       <c r="U4" t="n">
-        <v>252.75</v>
+        <v>14.4942</v>
       </c>
       <c r="V4" t="n">
-        <v>384.54</v>
+        <v>15.6378</v>
       </c>
       <c r="W4" t="n">
-        <v>105.94</v>
+        <v>16.5977</v>
       </c>
       <c r="X4" t="n">
-        <v>315.93</v>
+        <v>14.7435</v>
       </c>
       <c r="Y4" t="n">
-        <v>561.88</v>
+        <v>17.836</v>
       </c>
       <c r="Z4" t="n">
-        <v>-57.29</v>
+        <v>15.8325</v>
       </c>
       <c r="AA4" t="n">
-        <v>-137.73</v>
+        <v>13.8754</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.55</v>
+        <v>15.8241</v>
       </c>
       <c r="AC4" t="n">
-        <v>-65.42</v>
+        <v>17.5624</v>
       </c>
       <c r="AD4" t="n">
-        <v>287.13</v>
+        <v>16.9252</v>
       </c>
       <c r="AE4" t="n">
-        <v>361.9</v>
+        <v>14.6771</v>
       </c>
       <c r="AF4" t="n">
-        <v>442.47</v>
+        <v>16.4924</v>
       </c>
       <c r="AG4" t="n">
-        <v>217.17</v>
+        <v>18.2323</v>
       </c>
       <c r="AH4" t="n">
-        <v>-353.29</v>
+        <v>19.9354</v>
       </c>
       <c r="AI4" t="n">
-        <v>-30.59</v>
+        <v>19.9827</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-20.11</v>
+        <v>19.3062</v>
       </c>
       <c r="AK4" t="n">
-        <v>55.36</v>
+        <v>24.7119</v>
       </c>
       <c r="AL4" t="n">
-        <v>171.46</v>
+        <v>16.167</v>
       </c>
       <c r="AM4" t="n">
-        <v>-53.47</v>
+        <v>16.819</v>
       </c>
       <c r="AN4" t="n">
-        <v>135.87</v>
+        <v>20.1863</v>
       </c>
       <c r="AO4" t="n">
-        <v>-14.36</v>
+        <v>19.8171</v>
       </c>
       <c r="AP4" t="n">
-        <v>233.72</v>
+        <v>19.7516</v>
       </c>
       <c r="AQ4" t="n">
-        <v>275.74</v>
+        <v>18.398</v>
       </c>
       <c r="AR4" t="n">
-        <v>-43.59</v>
+        <v>21.0558</v>
       </c>
       <c r="AS4" t="n">
-        <v>258.01</v>
+        <v>19.9213</v>
       </c>
       <c r="AT4" t="n">
-        <v>-371.16</v>
+        <v>23.7306</v>
       </c>
       <c r="AU4" t="n">
-        <v>-144.73</v>
+        <v>23.5096</v>
       </c>
       <c r="AV4" t="n">
-        <v>-619.9299999999999</v>
+        <v>26.2248</v>
       </c>
       <c r="AW4" t="n">
-        <v>-946.55</v>
+        <v>33.9178</v>
       </c>
       <c r="AX4" t="n">
-        <v>-904.3</v>
+        <v>25.0641</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1263.67</v>
+        <v>27.6804</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-657.08</v>
+        <v>30.8865</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1062.97</v>
+        <v>30.4812</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1264.26</v>
+        <v>34.7322</v>
       </c>
       <c r="BC4" t="n">
-        <v>-1449.78</v>
+        <v>35.214</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1290.98</v>
+        <v>35.4235</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1281.75</v>
+        <v>35.5236</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1248.91</v>
+        <v>35.7119</v>
       </c>
       <c r="BG4" t="n">
-        <v>-893.29</v>
+        <v>33.8408</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1371.23</v>
+        <v>38.1384</v>
       </c>
       <c r="BI4" t="n">
-        <v>-2511.32</v>
+        <v>62.5644</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-449.79</v>
+        <v>22.9268</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1287.81</v>
+        <v>31.6807</v>
       </c>
       <c r="BL4" t="n">
-        <v>-1267.12</v>
+        <v>33.9041</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1478.43</v>
+        <v>38.8946</v>
       </c>
       <c r="BN4" t="n">
-        <v>-1048.71</v>
+        <v>35.844</v>
       </c>
       <c r="BO4" t="n">
-        <v>-936.48</v>
+        <v>36.9596</v>
       </c>
       <c r="BP4" t="n">
-        <v>-766.86</v>
+        <v>34.4401</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-958.52</v>
+        <v>36.559</v>
       </c>
       <c r="BR4" t="n">
-        <v>-809.37</v>
+        <v>34.6949</v>
       </c>
       <c r="BS4" t="n">
-        <v>-384.78</v>
+        <v>34.0114</v>
       </c>
       <c r="BT4" t="n">
-        <v>-902.71</v>
+        <v>36.028</v>
       </c>
       <c r="BU4" t="n">
-        <v>-1732.9</v>
+        <v>55.775</v>
       </c>
       <c r="BV4" t="n">
-        <v>-300.91</v>
+        <v>20.5798</v>
       </c>
       <c r="BW4" t="n">
-        <v>-402.99</v>
+        <v>29.2039</v>
       </c>
       <c r="BX4" t="n">
-        <v>-335.83</v>
+        <v>33.3951</v>
       </c>
       <c r="BY4" t="n">
-        <v>-642.12</v>
+        <v>35.3027</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-284.79</v>
+        <v>33.2877</v>
       </c>
       <c r="CA4" t="n">
-        <v>-37.62</v>
+        <v>34.5773</v>
       </c>
       <c r="CB4" t="n">
-        <v>-171.95</v>
+        <v>34.3086</v>
       </c>
       <c r="CC4" t="n">
-        <v>-201.5</v>
+        <v>34.3892</v>
       </c>
       <c r="CD4" t="n">
-        <v>-322.4</v>
+        <v>37.1027</v>
       </c>
       <c r="CE4" t="n">
-        <v>163.88</v>
+        <v>33.8519</v>
       </c>
       <c r="CF4" t="n">
-        <v>-274.04</v>
+        <v>40.8372</v>
       </c>
       <c r="CG4" t="n">
-        <v>-1039.74</v>
+        <v>67.08580000000001</v>
       </c>
       <c r="CH4" t="n">
-        <v>325.09</v>
+        <v>23.5888</v>
       </c>
       <c r="CI4" t="n">
-        <v>-424.49</v>
+        <v>31.5145</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-513.15</v>
+        <v>40.4342</v>
       </c>
       <c r="CK4" t="n">
-        <v>-325.08</v>
+        <v>43.2014</v>
       </c>
       <c r="CL4" t="n">
-        <v>5.37</v>
+        <v>43.8731</v>
       </c>
       <c r="CM4" t="n">
-        <v>-225.68</v>
+        <v>39.5476</v>
       </c>
       <c r="CN4" t="n">
-        <v>-615.25</v>
+        <v>44.6791</v>
       </c>
       <c r="CO4" t="n">
-        <v>-728.08</v>
+        <v>47.4463</v>
       </c>
       <c r="CP4" t="n">
-        <v>-926.9</v>
+        <v>49.0852</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-354.64</v>
+        <v>46.103</v>
       </c>
       <c r="CR4" t="n">
-        <v>-1579.76</v>
+        <v>55.775</v>
       </c>
       <c r="CS4" t="n">
-        <v>-2375</v>
+        <v>87.5312</v>
       </c>
       <c r="CT4" t="n">
-        <v>-104.78</v>
+        <v>29.1502</v>
       </c>
       <c r="CU4" t="n">
-        <v>-720.02</v>
+        <v>36.3504</v>
       </c>
       <c r="CV4" t="n">
-        <v>-1066.6</v>
+        <v>49.9718</v>
       </c>
       <c r="CW4" t="n">
-        <v>-1864.54</v>
+        <v>58.0049</v>
       </c>
       <c r="CX4" t="n">
-        <v>-881.22</v>
+        <v>53.0883</v>
       </c>
       <c r="CY4" t="n">
-        <v>-1157.94</v>
+        <v>53.7868</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-773.75</v>
+        <v>51.7718</v>
       </c>
       <c r="DA4" t="n">
-        <v>-271.35</v>
+        <v>50.8315</v>
       </c>
       <c r="DB4" t="n">
-        <v>325.08</v>
+        <v>44.1955</v>
       </c>
       <c r="DC4" t="n">
-        <v>-77.91</v>
+        <v>46.909</v>
       </c>
       <c r="DD4" t="n">
-        <v>-69.84999999999999</v>
+        <v>48.924</v>
       </c>
       <c r="DE4" t="n">
-        <v>7.08</v>
+        <v>59.8367</v>
       </c>
       <c r="DF4" t="n">
-        <v>275.3</v>
+        <v>25.6454</v>
       </c>
       <c r="DG4" t="n">
-        <v>-273.19</v>
+        <v>35.2386</v>
       </c>
       <c r="DH4" t="n">
-        <v>815.3200000000001</v>
+        <v>38.7539</v>
       </c>
       <c r="DI4" t="n">
-        <v>495.54</v>
+        <v>43.0317</v>
       </c>
       <c r="DJ4" t="n">
-        <v>372.72</v>
+        <v>45.6153</v>
       </c>
       <c r="DK4" t="n">
-        <v>866.14</v>
+        <v>42.5235</v>
       </c>
       <c r="DL4" t="n">
-        <v>720.02</v>
+        <v>43.9847</v>
       </c>
       <c r="DM4" t="n">
-        <v>916.96</v>
+        <v>45.8906</v>
       </c>
       <c r="DN4" t="n">
-        <v>690.37</v>
+        <v>44.0482</v>
       </c>
       <c r="DO4" t="n">
-        <v>1293.91</v>
+        <v>45.5518</v>
       </c>
       <c r="DP4" t="n">
-        <v>863.7</v>
+        <v>46.5553</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1608.55</v>
+        <v>65.9122</v>
       </c>
       <c r="DR4" t="n">
-        <v>905.77</v>
+        <v>30.7156</v>
       </c>
       <c r="DS4" t="n">
-        <v>938.3200000000001</v>
+        <v>31.2135</v>
       </c>
       <c r="DT4" t="n">
-        <v>400.22</v>
+        <v>49.4246</v>
       </c>
       <c r="DU4" t="n">
-        <v>3.8</v>
+        <v>51.6151</v>
       </c>
       <c r="DV4" t="n">
-        <v>611.6</v>
+        <v>51.5441</v>
       </c>
       <c r="DW4" t="n">
-        <v>657.51</v>
+        <v>50.6958</v>
       </c>
       <c r="DX4" t="n">
-        <v>1066.2</v>
+        <v>51.5171</v>
       </c>
       <c r="DY4" t="n">
-        <v>850.85</v>
+        <v>54.5594</v>
       </c>
       <c r="DZ4" t="n">
-        <v>617.85</v>
+        <v>54.3035</v>
       </c>
       <c r="EA4" t="n">
-        <v>925.83</v>
+        <v>51.3478</v>
       </c>
       <c r="EB4" t="n">
-        <v>833.23</v>
+        <v>55.7335</v>
       </c>
       <c r="EC4" t="n">
-        <v>72.05</v>
+        <v>91.4079</v>
       </c>
       <c r="ED4" t="n">
-        <v>975</v>
+        <v>30.16</v>
       </c>
       <c r="EE4" t="n">
-        <v>119</v>
+        <v>48.51</v>
       </c>
       <c r="EF4" t="n">
-        <v>107</v>
+        <v>58.93</v>
       </c>
       <c r="EG4" t="n">
-        <v>265</v>
+        <v>60.84</v>
       </c>
       <c r="EH4" t="n">
-        <v>243</v>
+        <v>63.58</v>
       </c>
       <c r="EI4" t="n">
-        <v>838</v>
+        <v>68.2</v>
       </c>
       <c r="EJ4" t="n">
-        <v>886</v>
+        <v>62.73</v>
       </c>
       <c r="EK4" t="n">
-        <v>1280</v>
+        <v>63.7</v>
       </c>
       <c r="EL4" t="n">
-        <v>222</v>
+        <v>68.42</v>
       </c>
       <c r="EM4" t="n">
-        <v>571</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="EN4" t="n">
-        <v>892</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="EO4" t="n">
-        <v>-2020</v>
+        <v>133.43</v>
       </c>
       <c r="EP4" t="n">
-        <v>153</v>
+        <v>32.04</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-650</v>
+        <v>64.73</v>
       </c>
       <c r="ER4" t="n">
-        <v>-676</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="ES4" t="n">
-        <v>-589</v>
+        <v>74.84</v>
       </c>
       <c r="ET4" t="n">
-        <v>-1296</v>
+        <v>85.09</v>
       </c>
       <c r="EU4" t="n">
-        <v>-428</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="EV4" t="n">
-        <v>-1136</v>
+        <v>87.63</v>
       </c>
       <c r="EW4" t="n">
-        <v>-1105</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="EX4" t="n">
-        <v>-726</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="EY4" t="n">
-        <v>-585</v>
+        <v>86.37</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-595</v>
+        <v>95.41</v>
       </c>
       <c r="FA4" t="n">
-        <v>-4480.5</v>
+        <v>179.669</v>
       </c>
       <c r="FB4" t="n">
-        <v>-835</v>
+        <v>57.16</v>
       </c>
       <c r="FC4" t="n">
-        <v>-230</v>
+        <v>59.63</v>
       </c>
       <c r="FD4" t="n">
-        <v>-237</v>
+        <v>87.25</v>
       </c>
       <c r="FE4" t="n">
-        <v>-472</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="FF4" t="n">
-        <v>23</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="FG4" t="n">
-        <v>1043</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="FH4" t="n">
-        <v>725</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="FI4" t="n">
-        <v>75</v>
+        <v>100.35</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1222</v>
+        <v>92.14</v>
       </c>
       <c r="FK4" t="n">
-        <v>1022</v>
+        <v>94.08</v>
       </c>
       <c r="FL4" t="n">
-        <v>2262</v>
+        <v>103.07</v>
       </c>
       <c r="FM4" t="n">
-        <v>592</v>
+        <v>179.16</v>
       </c>
       <c r="FN4" t="n">
-        <v>2679</v>
+        <v>65</v>
       </c>
       <c r="FO4" t="n">
-        <v>1762</v>
+        <v>71.23</v>
       </c>
       <c r="FP4" t="n">
-        <v>2639</v>
+        <v>102.41</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1713</v>
+        <v>102.78</v>
       </c>
       <c r="FR4" t="n">
-        <v>1324</v>
+        <v>114.93</v>
       </c>
       <c r="FS4" t="n">
-        <v>3082</v>
+        <v>109.55</v>
       </c>
       <c r="FT4" t="n">
-        <v>1142</v>
+        <v>111.26</v>
       </c>
       <c r="FU4" t="n">
-        <v>940</v>
+        <v>115.8</v>
       </c>
       <c r="FV4" t="n">
-        <v>1139</v>
+        <v>112.92</v>
       </c>
       <c r="FW4" t="n">
-        <v>1373</v>
+        <v>109.71</v>
       </c>
       <c r="FX4" t="n">
-        <v>133</v>
+        <v>120.46</v>
       </c>
       <c r="FY4" t="n">
-        <v>-1230</v>
+        <v>184.74</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-957</v>
+        <v>101.32</v>
       </c>
       <c r="GA4" t="n">
-        <v>517</v>
+        <v>81.37</v>
       </c>
       <c r="GB4" t="n">
-        <v>-728</v>
+        <v>111.35</v>
       </c>
       <c r="GC4" t="n">
-        <v>456</v>
+        <v>109.26</v>
       </c>
       <c r="GD4" t="n">
-        <v>146</v>
+        <v>120.09</v>
       </c>
       <c r="GE4" t="n">
-        <v>1358</v>
+        <v>109.08</v>
       </c>
       <c r="GF4" t="n">
-        <v>1122</v>
+        <v>113.04</v>
       </c>
       <c r="GG4" t="n">
-        <v>2995</v>
+        <v>111.39</v>
       </c>
       <c r="GH4" t="n">
-        <v>3125</v>
+        <v>102.94</v>
       </c>
       <c r="GI4" t="n">
-        <v>3910</v>
+        <v>113.09</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1999</v>
+        <v>116.22</v>
       </c>
       <c r="GK4" t="n">
-        <v>-1702</v>
+        <v>200.28</v>
       </c>
       <c r="GL4" t="n">
-        <v>1715</v>
+        <v>99.77</v>
       </c>
       <c r="GM4" t="n">
-        <v>2118</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="GN4" t="n">
-        <v>2948</v>
+        <v>110.98</v>
       </c>
       <c r="GO4" t="n">
-        <v>3575</v>
+        <v>112.2</v>
       </c>
       <c r="GP4" t="n">
-        <v>3634</v>
+        <v>115.58</v>
       </c>
       <c r="GQ4" t="n">
-        <v>4153</v>
+        <v>112.2</v>
       </c>
       <c r="GR4" t="n">
-        <v>2763</v>
+        <v>128.2</v>
       </c>
       <c r="GS4" t="n">
-        <v>4957</v>
+        <v>110.7</v>
       </c>
       <c r="GT4" t="n">
-        <v>5083</v>
+        <v>114.8</v>
       </c>
       <c r="GU4" t="n">
-        <v>4975</v>
+        <v>128.42</v>
       </c>
       <c r="GV4" t="n">
-        <v>4655</v>
+        <v>120.97</v>
       </c>
       <c r="GW4" t="n">
-        <v>112</v>
+        <v>190.78</v>
       </c>
       <c r="GX4" t="n">
-        <v>3981</v>
+        <v>86.95</v>
       </c>
       <c r="GY4" t="n">
-        <v>3165</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="GZ4" t="n">
-        <v>3473</v>
+        <v>117.65</v>
       </c>
       <c r="HA4" t="n">
-        <v>4266</v>
+        <v>116.86</v>
       </c>
       <c r="HB4" t="n">
-        <v>3636</v>
+        <v>112.91</v>
       </c>
       <c r="HC4" t="n">
-        <v>3752</v>
+        <v>118.57</v>
       </c>
       <c r="HD4" t="n">
-        <v>4193</v>
+        <v>119.64</v>
       </c>
       <c r="HE4" t="n">
-        <v>4678</v>
+        <v>108.79</v>
       </c>
       <c r="HF4" t="n">
-        <v>3933</v>
+        <v>115.43</v>
       </c>
       <c r="HG4" t="n">
-        <v>3077</v>
+        <v>116.53</v>
       </c>
       <c r="HH4" t="n">
-        <v>2800</v>
+        <v>123</v>
       </c>
       <c r="HI4" t="n">
-        <v>2330</v>
+        <v>176.79</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1480</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="HK4" t="n">
-        <v>2280</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="HL4" t="n">
-        <v>440</v>
+        <v>143.7</v>
       </c>
       <c r="HM4" t="n">
-        <v>960</v>
+        <v>138.2</v>
       </c>
       <c r="HN4" t="n">
-        <v>1870</v>
+        <v>136.5</v>
       </c>
       <c r="HO4" t="n">
-        <v>790</v>
+        <v>145.2</v>
       </c>
       <c r="HP4" t="n">
-        <v>3399</v>
+        <v>139.21</v>
       </c>
       <c r="HQ4" t="n">
-        <v>4880</v>
+        <v>134.4</v>
       </c>
       <c r="HR4" t="n">
-        <v>3302</v>
+        <v>152.68</v>
       </c>
       <c r="HS4" t="n">
-        <v>4439</v>
+        <v>137.94</v>
       </c>
       <c r="HT4" t="n">
-        <v>2568</v>
+        <v>169.09</v>
       </c>
       <c r="HU4" t="n">
-        <v>2820</v>
+        <v>174.2</v>
       </c>
       <c r="HV4" t="n">
-        <v>1540</v>
+        <v>152.6</v>
       </c>
       <c r="HW4" t="n">
-        <v>1350</v>
+        <v>134.3</v>
       </c>
       <c r="HX4" t="n">
-        <v>2340</v>
+        <v>178.1</v>
       </c>
       <c r="HY4" t="n">
-        <v>2140</v>
+        <v>183.6</v>
       </c>
       <c r="HZ4" t="n">
-        <v>3130</v>
+        <v>169.7</v>
       </c>
       <c r="IA4" t="n">
-        <v>1890</v>
+        <v>203</v>
       </c>
       <c r="IB4" t="n">
-        <v>1990</v>
+        <v>194.9</v>
       </c>
       <c r="IC4" t="n">
-        <v>2540</v>
+        <v>207.9</v>
       </c>
       <c r="ID4" t="n">
-        <v>2250</v>
+        <v>207.2</v>
       </c>
       <c r="IE4" t="n">
-        <v>3880</v>
+        <v>189.2</v>
       </c>
       <c r="IF4" t="n">
-        <v>500</v>
+        <v>216.4</v>
       </c>
       <c r="IG4" t="n">
-        <v>580</v>
+        <v>214.1</v>
       </c>
       <c r="IH4" t="n">
-        <v>1380</v>
+        <v>155.5</v>
       </c>
       <c r="II4" t="n">
-        <v>970</v>
+        <v>182.3</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2370</v>
+        <v>207.7</v>
       </c>
       <c r="IK4" t="n">
-        <v>930</v>
+        <v>218.6</v>
       </c>
       <c r="IL4" t="n">
-        <v>2000</v>
+        <v>188.1</v>
       </c>
       <c r="IM4" t="n">
-        <v>830</v>
+        <v>212.5</v>
       </c>
       <c r="IN4" t="n">
-        <v>1930</v>
+        <v>209.6</v>
       </c>
       <c r="IO4" t="n">
-        <v>1380</v>
+        <v>221.6</v>
       </c>
       <c r="IP4" t="n">
-        <v>2140</v>
+        <v>218.5</v>
       </c>
       <c r="IQ4" t="n">
-        <v>3890</v>
+        <v>189</v>
       </c>
       <c r="IR4" t="n">
-        <v>3150</v>
+        <v>208.5</v>
       </c>
       <c r="IS4" t="n">
-        <v>2110</v>
+        <v>223.9</v>
       </c>
       <c r="IT4" t="n">
-        <v>2720</v>
+        <v>189.8</v>
       </c>
       <c r="IU4" t="n">
-        <v>3220</v>
+        <v>159.1</v>
       </c>
       <c r="IV4" t="n">
-        <v>1310</v>
+        <v>224.8</v>
       </c>
       <c r="IW4" t="n">
-        <v>970</v>
+        <v>257.5</v>
       </c>
       <c r="IX4" t="n">
-        <v>2210</v>
+        <v>224.3</v>
       </c>
       <c r="IY4" t="n">
-        <v>2920</v>
+        <v>230.96</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2220</v>
+        <v>269.9</v>
       </c>
       <c r="JA4" t="n">
-        <v>2230</v>
+        <v>272.05</v>
       </c>
       <c r="JB4" t="n">
-        <v>2120</v>
+        <v>297.9</v>
       </c>
       <c r="JC4" t="n">
-        <v>4750</v>
+        <v>252</v>
       </c>
       <c r="JD4" t="n">
-        <v>2480</v>
+        <v>287.4</v>
       </c>
       <c r="JE4" t="n">
-        <v>3157</v>
+        <v>287.33</v>
       </c>
       <c r="JF4" t="n">
-        <v>-1205</v>
+        <v>310.12</v>
       </c>
       <c r="JG4" t="n">
-        <v>740</v>
+        <v>237.51</v>
       </c>
       <c r="JH4" t="n">
-        <v>-416</v>
+        <v>324.92</v>
       </c>
       <c r="JI4" t="n">
-        <v>1026</v>
+        <v>345.65</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2213</v>
+        <v>315.79</v>
       </c>
       <c r="JK4" t="n">
-        <v>2137</v>
+        <v>323.29</v>
       </c>
       <c r="JL4" t="n">
-        <v>1588</v>
+        <v>364.96</v>
       </c>
       <c r="JM4" t="n">
-        <v>2797</v>
+        <v>345.98</v>
       </c>
       <c r="JN4" t="n">
-        <v>304</v>
+        <v>416.24</v>
       </c>
       <c r="JO4" t="n">
-        <v>5739</v>
+        <v>351.5</v>
       </c>
       <c r="JP4" t="n">
-        <v>4868</v>
+        <v>368.55</v>
       </c>
       <c r="JQ4" t="n">
-        <v>5729</v>
+        <v>423.09</v>
       </c>
       <c r="JR4" t="n">
-        <v>-6</v>
+        <v>357.14</v>
       </c>
       <c r="JS4" t="n">
-        <v>-7989</v>
+        <v>420.19</v>
       </c>
       <c r="JT4" t="n">
-        <v>-640</v>
+        <v>464.79</v>
       </c>
       <c r="JU4" t="n">
-        <v>-2421</v>
+        <v>495.29</v>
       </c>
       <c r="JV4" t="n">
-        <v>1859</v>
+        <v>429.84</v>
       </c>
       <c r="JW4" t="n">
-        <v>1625</v>
+        <v>488.93</v>
       </c>
       <c r="JX4" t="n">
-        <v>1954</v>
+        <v>489.8</v>
       </c>
       <c r="JY4" t="n">
-        <v>4492</v>
+        <v>468.21</v>
       </c>
       <c r="JZ4" t="n">
-        <v>5008</v>
+        <v>507.19</v>
       </c>
       <c r="KA4" t="n">
-        <v>7074</v>
+        <v>454.4</v>
       </c>
       <c r="KB4" t="n">
-        <v>9912</v>
+        <v>509.7</v>
       </c>
       <c r="KC4" t="n">
-        <v>11076</v>
+        <v>526.8</v>
       </c>
       <c r="KD4" t="n">
-        <v>6469</v>
+        <v>442.55</v>
       </c>
       <c r="KE4" t="n">
-        <v>4374</v>
+        <v>399.01</v>
       </c>
       <c r="KF4" t="n">
-        <v>5626</v>
+        <v>552.09</v>
       </c>
       <c r="KG4" t="n">
-        <v>4427</v>
+        <v>576.5599999999999</v>
       </c>
       <c r="KH4" t="n">
-        <v>9006</v>
+        <v>493.97</v>
       </c>
       <c r="KI4" t="n">
-        <v>9703</v>
+        <v>562.05</v>
       </c>
       <c r="KJ4" t="n">
-        <v>10626</v>
+        <v>548.97</v>
       </c>
       <c r="KK4" t="n">
-        <v>10592</v>
+        <v>577.77</v>
       </c>
       <c r="KL4" t="n">
-        <v>7530</v>
+        <v>625.71</v>
       </c>
       <c r="KM4" t="n">
-        <v>11982</v>
+        <v>560.46</v>
       </c>
       <c r="KN4" t="n">
-        <v>10531</v>
+        <v>616.6</v>
       </c>
       <c r="KO4" t="n">
-        <v>11016</v>
+        <v>643.79</v>
       </c>
       <c r="KP4" t="n">
-        <v>9492</v>
+        <v>554.9299999999999</v>
       </c>
       <c r="KQ4" t="n">
-        <v>2425</v>
+        <v>515.79</v>
       </c>
       <c r="KR4" t="n">
-        <v>11189</v>
+        <v>668.7</v>
       </c>
       <c r="KS4" t="n">
-        <v>10460</v>
+        <v>664.5</v>
       </c>
       <c r="KT4" t="n">
-        <v>13000</v>
+        <v>601.26</v>
       </c>
       <c r="KU4" t="n">
-        <v>14502.919</v>
+        <v>668.63</v>
       </c>
       <c r="KV4" t="n">
-        <v>14623.639</v>
+        <v>657.24</v>
       </c>
       <c r="KW4" t="n">
-        <v>18800</v>
+        <v>719.1799999999999</v>
       </c>
       <c r="KX4" t="n">
-        <v>15290</v>
+        <v>762.63</v>
       </c>
       <c r="KY4" t="n">
-        <v>23830</v>
+        <v>642.71</v>
       </c>
       <c r="KZ4" t="n">
-        <v>22930</v>
+        <v>729.03</v>
       </c>
       <c r="LA4" t="n">
-        <v>20990</v>
+        <v>730</v>
       </c>
       <c r="LB4" t="n">
-        <v>15880</v>
+        <v>707.26</v>
       </c>
       <c r="LC4" t="n">
-        <v>23760</v>
+        <v>583.58</v>
       </c>
       <c r="LD4" t="n">
-        <v>6871</v>
+        <v>766.86</v>
       </c>
       <c r="LE4" t="n">
-        <v>16846</v>
+        <v>807.6</v>
       </c>
       <c r="LF4" t="n">
-        <v>22474</v>
+        <v>716.4400000000001</v>
       </c>
       <c r="LG4" t="n">
-        <v>26910</v>
+        <v>764.6900000000001</v>
       </c>
       <c r="LH4" t="n">
-        <v>24357</v>
+        <v>833.47</v>
       </c>
       <c r="LI4" t="n">
-        <v>24974</v>
+        <v>862.24</v>
       </c>
       <c r="LJ4" t="n">
-        <v>23810</v>
+        <v>882.63</v>
       </c>
       <c r="LK4" t="n">
-        <v>27051</v>
+        <v>805.47</v>
       </c>
       <c r="LL4" t="n">
-        <v>26281</v>
+        <v>912.03</v>
       </c>
       <c r="LM4" t="n">
-        <v>22687.005</v>
+        <v>917.23</v>
       </c>
       <c r="LN4" t="n">
-        <v>19475</v>
+        <v>902.8099999999999</v>
       </c>
       <c r="LO4" t="n">
-        <v>8215</v>
+        <v>791.46</v>
       </c>
       <c r="LP4" t="n">
-        <v>13132</v>
+        <v>958.65</v>
       </c>
       <c r="LQ4" t="n">
-        <v>16611</v>
+        <v>1023.94</v>
       </c>
       <c r="LR4" t="n">
-        <v>19918</v>
+        <v>1007.81</v>
       </c>
       <c r="LS4" t="n">
-        <v>20874</v>
+        <v>1004.46</v>
       </c>
       <c r="LT4" t="n">
-        <v>25425</v>
+        <v>1114.12</v>
       </c>
       <c r="LU4" t="n">
-        <v>29388</v>
+        <v>1059.99</v>
       </c>
       <c r="LV4" t="n">
-        <v>29967</v>
+        <v>1067.92</v>
       </c>
       <c r="LW4" t="n">
-        <v>35784</v>
+        <v>927.48</v>
       </c>
       <c r="LX4" t="n">
-        <v>40329</v>
+        <v>746.5700000000001</v>
       </c>
       <c r="LY4" t="n">
-        <v>39008</v>
+        <v>720.46</v>
       </c>
       <c r="LZ4" t="n">
-        <v>39113</v>
+        <v>513.72</v>
       </c>
       <c r="MA4" t="n">
-        <v>4807</v>
+        <v>600.59</v>
       </c>
       <c r="MB4" t="n">
-        <v>18367</v>
+        <v>718.51</v>
       </c>
       <c r="MC4" t="n">
-        <v>12940</v>
+        <v>789.83</v>
       </c>
       <c r="MD4" t="n">
-        <v>13034</v>
+        <v>756.65</v>
       </c>
       <c r="ME4" t="n">
-        <v>7947</v>
+        <v>875.11</v>
       </c>
       <c r="MF4" t="n">
-        <v>10240</v>
+        <v>951.51</v>
       </c>
       <c r="MG4" t="n">
-        <v>15420</v>
+        <v>882.4299999999999</v>
       </c>
       <c r="MH4" t="n">
-        <v>12667</v>
+        <v>1031.99</v>
       </c>
       <c r="MI4" t="n">
-        <v>23794</v>
+        <v>868.48</v>
       </c>
       <c r="MJ4" t="n">
-        <v>18968</v>
+        <v>946.91</v>
       </c>
       <c r="MK4" t="n">
-        <v>18391</v>
+        <v>1123.49</v>
       </c>
       <c r="ML4" t="n">
-        <v>13960</v>
+        <v>955.3</v>
       </c>
       <c r="MM4" t="n">
-        <v>7338</v>
+        <v>871.26</v>
       </c>
       <c r="MN4" t="n">
-        <v>-7407</v>
+        <v>1194.67</v>
       </c>
       <c r="MO4" t="n">
-        <v>1410</v>
+        <v>1184.41</v>
       </c>
       <c r="MP4" t="n">
-        <v>19449</v>
+        <v>1122.12</v>
       </c>
       <c r="MQ4" t="n">
-        <v>20186</v>
+        <v>1171.53</v>
       </c>
       <c r="MR4" t="n">
-        <v>28544</v>
+        <v>1168.9</v>
       </c>
       <c r="MS4" t="n">
-        <v>19756</v>
+        <v>1194.8</v>
       </c>
       <c r="MT4" t="n">
-        <v>16563</v>
+        <v>1283.6</v>
       </c>
       <c r="MU4" t="n">
-        <v>26807</v>
+        <v>1091.11</v>
       </c>
       <c r="MV4" t="n">
-        <v>22295</v>
+        <v>1309.85</v>
       </c>
       <c r="MW4" t="n">
-        <v>12608</v>
+        <v>1414.93</v>
       </c>
       <c r="MX4" t="n">
-        <v>5782</v>
+        <v>1449.15</v>
       </c>
       <c r="MY4" t="n">
-        <v>-7873</v>
+        <v>1045.54</v>
       </c>
       <c r="MZ4" t="n">
-        <v>-190</v>
+        <v>1523.24</v>
       </c>
       <c r="NA4" t="n">
-        <v>11222</v>
+        <v>1443.7</v>
       </c>
       <c r="NB4" t="n">
-        <v>12929</v>
+        <v>1441.22</v>
       </c>
       <c r="NC4" t="n">
-        <v>22194</v>
+        <v>1397.02</v>
       </c>
       <c r="ND4" t="n">
-        <v>30136</v>
+        <v>1450.15</v>
       </c>
       <c r="NE4" t="n">
-        <v>17854</v>
+        <v>1553.84</v>
       </c>
       <c r="NF4" t="n">
-        <v>14586</v>
+        <v>1549.94</v>
       </c>
       <c r="NG4" t="n">
-        <v>17134</v>
+        <v>1402.18</v>
       </c>
       <c r="NH4" t="n">
-        <v>14663</v>
+        <v>1597.22</v>
       </c>
       <c r="NI4" t="n">
-        <v>16460</v>
+        <v>1581.63</v>
       </c>
       <c r="NJ4" t="n">
-        <v>27014</v>
+        <v>1228.48</v>
       </c>
       <c r="NK4" t="n">
-        <v>-32002</v>
+        <v>1464.11</v>
       </c>
       <c r="NL4" t="n">
-        <v>5183</v>
+        <v>1603.94</v>
       </c>
       <c r="NM4" t="n">
-        <v>18555</v>
+        <v>1445.73</v>
       </c>
       <c r="NN4" t="n">
-        <v>18185</v>
+        <v>1628.49</v>
       </c>
       <c r="NO4" t="n">
-        <v>31649</v>
+        <v>1481.82</v>
       </c>
       <c r="NP4" t="n">
-        <v>25301</v>
+        <v>1516.17</v>
       </c>
       <c r="NQ4" t="n">
-        <v>26418</v>
+        <v>1514.51</v>
       </c>
       <c r="NR4" t="n">
-        <v>27464</v>
+        <v>1586.52</v>
       </c>
       <c r="NS4" t="n">
-        <v>32070</v>
+        <v>1434.46</v>
       </c>
       <c r="NT4" t="n">
-        <v>19481</v>
+        <v>1598.6</v>
       </c>
       <c r="NU4" t="n">
-        <v>30991</v>
+        <v>1681.22</v>
       </c>
       <c r="NV4" t="n">
-        <v>28089.423661</v>
+        <v>1591.98268664</v>
       </c>
       <c r="NW4" t="n">
-        <v>14882.516326</v>
+        <v>1244.21634524</v>
       </c>
       <c r="NX4" t="n">
-        <v>-906.434609</v>
+        <v>1830.0822615</v>
       </c>
       <c r="NY4" t="n">
-        <v>18361.852966</v>
+        <v>1685.69052216</v>
       </c>
       <c r="NZ4" t="n">
-        <v>20658.599912</v>
+        <v>1620.20918681</v>
       </c>
       <c r="OA4" t="n">
-        <v>27267.122256</v>
+        <v>1469.67908342</v>
       </c>
       <c r="OB4" t="n">
-        <v>17757.906068</v>
+        <v>1681.57102125</v>
       </c>
       <c r="OC4" t="n">
-        <v>28133.242691</v>
+        <v>1623.59301982</v>
       </c>
       <c r="OD4" t="n">
-        <v>14753.457493</v>
+        <v>1705.5983485</v>
       </c>
       <c r="OE4" t="n">
-        <v>31034.989159</v>
+        <v>1542.58769155</v>
       </c>
       <c r="OF4" t="n">
-        <v>33753.337427</v>
+        <v>1683.29629372</v>
       </c>
       <c r="OG4" t="n">
-        <v>25228.517189</v>
+        <v>1821.38822205</v>
       </c>
       <c r="OH4" t="n">
-        <v>32022.657435</v>
+        <v>1750.14288271</v>
       </c>
       <c r="OI4" t="n">
-        <v>-22568.97352</v>
+        <v>1366.214506</v>
       </c>
       <c r="OJ4" t="n">
-        <v>7984.652293</v>
+        <v>1620.1697264</v>
       </c>
       <c r="OK4" t="n">
-        <v>18663.664462</v>
+        <v>1697.85916707</v>
       </c>
       <c r="OL4" t="n">
-        <v>36239.387936</v>
+        <v>1593.57003386</v>
       </c>
       <c r="OM4" t="n">
-        <v>31894.16759</v>
+        <v>1548.62311718</v>
       </c>
       <c r="ON4" t="n">
-        <v>47352.991573</v>
+        <v>1653.91131933</v>
       </c>
       <c r="OO4" t="n">
-        <v>49876.124954</v>
+        <v>1584.53429079</v>
       </c>
       <c r="OP4" t="n">
-        <v>31213.307824</v>
+        <v>1823.48349511</v>
       </c>
       <c r="OQ4" t="n">
-        <v>45699.38981</v>
+        <v>1610.71796252</v>
       </c>
       <c r="OR4" t="n">
-        <v>54764.55946</v>
+        <v>1567.98490572</v>
       </c>
       <c r="OS4" t="n">
-        <v>49916.118093</v>
+        <v>1775.13507741</v>
       </c>
       <c r="OT4" t="n">
-        <v>59314.784288</v>
+        <v>1405.6146718</v>
       </c>
       <c r="OU4" t="n">
-        <v>60462.097833</v>
+        <v>1084.84585885</v>
       </c>
       <c r="OV4" t="n">
-        <v>2516.035229</v>
+        <v>1417.18895315</v>
       </c>
       <c r="OW4" t="n">
-        <v>33201.528314</v>
+        <v>1427.00812542</v>
       </c>
       <c r="OX4" t="n">
-        <v>57154.574663</v>
+        <v>1316.45543462</v>
       </c>
       <c r="OY4" t="n">
-        <v>45198.150754</v>
+        <v>1443.46523884</v>
       </c>
       <c r="OZ4" t="n">
-        <v>41869.517083</v>
+        <v>1512.91615383</v>
       </c>
       <c r="PA4" t="n">
-        <v>59688.193697</v>
+        <v>1364.73211627</v>
       </c>
       <c r="PB4" t="n">
-        <v>59605.54082</v>
+        <v>1453.17047184</v>
       </c>
       <c r="PC4" t="n">
-        <v>61286.229813</v>
+        <v>1309.02793213</v>
       </c>
       <c r="PD4" t="n">
-        <v>53976.489959</v>
+        <v>1426.16476212</v>
       </c>
       <c r="PE4" t="n">
-        <v>59630.584152</v>
+        <v>1635.055257</v>
       </c>
       <c r="PF4" t="n">
-        <v>56851.976911</v>
+        <v>1125.4694099</v>
       </c>
       <c r="PG4" t="n">
-        <v>28149.063738</v>
+        <v>935.58094839</v>
       </c>
       <c r="PH4" t="n">
-        <v>24910.412679</v>
+        <v>1301.87765536</v>
       </c>
       <c r="PI4" t="n">
-        <v>39859.478866</v>
+        <v>1268.29152831</v>
       </c>
       <c r="PJ4" t="n">
-        <v>44842.622189</v>
+        <v>1308.6744272</v>
       </c>
       <c r="PK4" t="n">
-        <v>45342.237484</v>
+        <v>1312.62338512</v>
       </c>
       <c r="PL4" t="n">
-        <v>48347.075917</v>
+        <v>1323.12139465</v>
       </c>
       <c r="PM4" t="n">
-        <v>50096.616501</v>
+        <v>1387.34071936</v>
       </c>
       <c r="PN4" t="n">
-        <v>40430.203099</v>
+        <v>1430.0978698</v>
       </c>
       <c r="PO4" t="n">
-        <v>48165.139899</v>
+        <v>1286.71274456</v>
       </c>
       <c r="PP4" t="n">
-        <v>43083.931164</v>
+        <v>1504.76795399</v>
       </c>
       <c r="PQ4" t="n">
-        <v>39626.215364</v>
+        <v>1694.70415318</v>
       </c>
       <c r="PR4" t="n">
-        <v>48677.270647</v>
+        <v>1315.96044694</v>
       </c>
       <c r="PS4" t="n">
-        <v>-10938.882586</v>
+        <v>1297.86519964</v>
       </c>
       <c r="PT4" t="n">
-        <v>22706.702188</v>
+        <v>1565.4116533</v>
       </c>
       <c r="PU4" t="n">
-        <v>36512.060235</v>
+        <v>1412.51332269</v>
       </c>
       <c r="PV4" t="n">
-        <v>39922.820391</v>
+        <v>1491.65544164</v>
       </c>
       <c r="PW4" t="n">
-        <v>41217.504245</v>
+        <v>1535.37054713</v>
       </c>
       <c r="PX4" t="n">
-        <v>44849.824569</v>
+        <v>1472.69303235</v>
       </c>
       <c r="PY4" t="n">
-        <v>40046.045255</v>
+        <v>1579.96656926</v>
       </c>
       <c r="PZ4" t="n">
-        <v>27376.337985</v>
+        <v>1705.67178433</v>
       </c>
       <c r="QA4" t="n">
-        <v>36898.77025</v>
+        <v>1510.04289221</v>
       </c>
       <c r="QB4" t="n">
-        <v>38433.124127</v>
+        <v>1774.05466745</v>
       </c>
       <c r="QC4" t="n">
-        <v>53850.406006</v>
+        <v>1776.72385075</v>
       </c>
       <c r="QD4" t="n">
-        <v>18318.610867</v>
+        <v>1811.50519062</v>
       </c>
       <c r="QE4" t="n">
-        <v>32203.56541</v>
+        <v>1383.44938942</v>
       </c>
       <c r="QF4" t="n">
-        <v>-5794.129451</v>
+        <v>1796.94418232</v>
       </c>
       <c r="QG4" t="n">
-        <v>26217.153089</v>
+        <v>1727.19133877</v>
       </c>
       <c r="QH4" t="n">
-        <v>23414.591373</v>
+        <v>1881.77306453</v>
       </c>
       <c r="QI4" t="n">
-        <v>40905.741944</v>
+        <v>1746.9062215</v>
       </c>
       <c r="QJ4" t="n">
-        <v>27488.286945</v>
+        <v>1869.14254314</v>
       </c>
       <c r="QK4" t="n">
-        <v>26297.057888</v>
+        <v>1906.52058461</v>
       </c>
       <c r="QL4" t="n">
-        <v>30263.257381</v>
+        <v>1951.34438339</v>
       </c>
       <c r="QM4" t="n">
-        <v>32973.751646</v>
+        <v>1817.8563178</v>
       </c>
       <c r="QN4" t="n">
-        <v>41859.2231</v>
+        <v>1824.34980776</v>
       </c>
       <c r="QO4" t="n">
-        <v>56800.177976</v>
+        <v>1640.50118866</v>
       </c>
       <c r="QP4" t="n">
-        <v>38338.45748</v>
+        <v>1796.69676051</v>
       </c>
       <c r="QQ4" t="n">
-        <v>2959.135312</v>
+        <v>1323.71034718</v>
       </c>
       <c r="QR4" t="n">
-        <v>31366.945569</v>
+        <v>1668.67490021</v>
       </c>
       <c r="QS4" t="n">
-        <v>13074.420769</v>
+        <v>1805.31894961</v>
       </c>
       <c r="QT4" t="n">
-        <v>41144.505192</v>
+        <v>1727.73252866</v>
       </c>
       <c r="QU4" t="n">
-        <v>49649.049026</v>
+        <v>1628.16660882</v>
       </c>
       <c r="QV4" t="n">
-        <v>44014.525438</v>
+        <v>1777.57872098</v>
       </c>
       <c r="QW4" t="n">
-        <v>34716.129886</v>
+        <v>1801.57156926</v>
       </c>
       <c r="QX4" t="n">
-        <v>39078.35216</v>
+        <v>1791.3652218</v>
       </c>
       <c r="QY4" t="n">
-        <v>42307.979877</v>
+        <v>1706.70619616</v>
       </c>
       <c r="QZ4" t="n">
-        <v>37175.871131</v>
+        <v>1842.66453825</v>
       </c>
       <c r="RA4" t="n">
-        <v>47247.734152</v>
+        <v>1913.90349052</v>
       </c>
       <c r="RB4" t="n">
-        <v>54685.831007</v>
+        <v>1569.11111628</v>
       </c>
       <c r="RC4" t="n">
-        <v>-61993.404356</v>
+        <v>1423.72636697</v>
       </c>
       <c r="RD4" t="n">
-        <v>19963.233621</v>
+        <v>1646.07563026</v>
       </c>
       <c r="RE4" t="n">
-        <v>44963.936222</v>
+        <v>1545.18350053</v>
       </c>
       <c r="RF4" t="n">
-        <v>61918.560391</v>
+        <v>1445.12201891</v>
       </c>
       <c r="RG4" t="n">
-        <v>44794.261557</v>
+        <v>1680.54548274</v>
       </c>
       <c r="RH4" t="n">
-        <v>60472.511513</v>
+        <v>1763.7147824</v>
       </c>
       <c r="RI4" t="n">
-        <v>57247.681266</v>
+        <v>1771.17046694</v>
       </c>
       <c r="RJ4" t="n">
-        <v>35584.068019</v>
+        <v>2030.34802877</v>
       </c>
       <c r="RK4" t="n">
-        <v>57530.821689</v>
+        <v>1787.33144609</v>
       </c>
       <c r="RL4" t="n">
-        <v>74782.906741</v>
+        <v>1921.50948106</v>
       </c>
       <c r="RM4" t="n">
-        <v>76990.873553</v>
+        <v>2048.41614378</v>
       </c>
       <c r="RN4" t="n">
-        <v>64170.938861</v>
+        <v>2019.7991934</v>
       </c>
       <c r="RO4" t="n">
-        <v>37320.502709</v>
+        <v>1693.14988309</v>
       </c>
       <c r="RP4" t="n">
-        <v>13554.017931</v>
+        <v>2289.70135727</v>
       </c>
       <c r="RQ4" t="n">
-        <v>42860.206228</v>
+        <v>2225.80334761</v>
       </c>
       <c r="RR4" t="n">
-        <v>45539.57802</v>
+        <v>2203.56387066</v>
       </c>
       <c r="RS4" t="n">
-        <v>51335.947901</v>
+        <v>2309.19668053</v>
       </c>
       <c r="RT4" t="n">
-        <v>56446.494874</v>
+        <v>2263.77067786</v>
       </c>
       <c r="RU4" t="n">
-        <v>58331.231042</v>
+        <v>2348.36016164</v>
       </c>
       <c r="RV4" t="n">
-        <v>66796.983396</v>
+        <v>2372.55529094</v>
       </c>
       <c r="RW4" t="n">
-        <v>71711.405522</v>
+        <v>2529.96522081</v>
       </c>
       <c r="RX4" t="n">
-        <v>94382.154333</v>
+        <v>2461.61319426</v>
       </c>
       <c r="RY4" t="n">
-        <v>85371.61347</v>
+        <v>2422.37205619</v>
       </c>
       <c r="RZ4" t="n">
-        <v>30583.640779</v>
+        <v>1870.36876459</v>
+      </c>
+      <c r="SA4" t="n">
+        <v>2287.04260392</v>
       </c>
     </row>
   </sheetData>
